--- a/InputData/bldgs/BCEU/BAU Components Energy Use.xlsx
+++ b/InputData/bldgs/BCEU/BAU Components Energy Use.xlsx
@@ -49658,100 +49658,100 @@
         </is>
       </c>
       <c r="J4" s="105" t="n">
-        <v>16327578608418.31</v>
+        <v>4689133806050.419</v>
       </c>
       <c r="K4" s="105" t="n">
-        <v>16417734825123.04</v>
+        <v>4715863481385.309</v>
       </c>
       <c r="L4" s="105" t="n">
-        <v>16504450611287.66</v>
+        <v>4740596188708.973</v>
       </c>
       <c r="M4" s="105" t="n">
-        <v>16577174785008.33</v>
+        <v>4763012532108.42</v>
       </c>
       <c r="N4" s="105" t="n">
-        <v>16641336680186.89</v>
+        <v>4783677707954.63</v>
       </c>
       <c r="O4" s="105" t="n">
-        <v>16706301698204.92</v>
+        <v>4803611557186.334</v>
       </c>
       <c r="P4" s="105" t="n">
-        <v>16767488917168</v>
+        <v>4824915734464.143</v>
       </c>
       <c r="Q4" s="105" t="n">
-        <v>16833576691789.08</v>
+        <v>4848077035811.084</v>
       </c>
       <c r="R4" s="105" t="n">
-        <v>16909088769355.39</v>
+        <v>4872990903129.84</v>
       </c>
       <c r="S4" s="105" t="n">
-        <v>16987118759496.93</v>
+        <v>4900152683366.849</v>
       </c>
       <c r="T4" s="105" t="n">
-        <v>17068741872307.15</v>
+        <v>4928298425055.508</v>
       </c>
       <c r="U4" s="105" t="n">
-        <v>17158624031278.55</v>
+        <v>4959430769752.187</v>
       </c>
       <c r="V4" s="105" t="n">
-        <v>17256777978670.78</v>
+        <v>4992937367169.056</v>
       </c>
       <c r="W4" s="105" t="n">
-        <v>17360679323783.74</v>
+        <v>5028661081662.395</v>
       </c>
       <c r="X4" s="105" t="n">
-        <v>17469891640158.53</v>
+        <v>5066281474790.267</v>
       </c>
       <c r="Y4" s="105" t="n">
-        <v>17584486327299.33</v>
+        <v>5106502867164.158</v>
       </c>
       <c r="Z4" s="105" t="n">
-        <v>17705845295923.61</v>
+        <v>5148949110138.659</v>
       </c>
       <c r="AA4" s="105" t="n">
-        <v>17833139883871.92</v>
+        <v>5194887696825.389</v>
       </c>
       <c r="AB4" s="105" t="n">
-        <v>17964557183030.95</v>
+        <v>5242306907572.583</v>
       </c>
       <c r="AC4" s="105" t="n">
-        <v>18097959110069.09</v>
+        <v>5291172841814.855</v>
       </c>
       <c r="AD4" s="105" t="n">
-        <v>18237771685856.5</v>
+        <v>5340313554367.149</v>
       </c>
       <c r="AE4" s="105" t="n">
-        <v>18374591838943.8</v>
+        <v>5389534045971.789</v>
       </c>
       <c r="AF4" s="105" t="n">
-        <v>18399969768908.46</v>
+        <v>5428987400163.396</v>
       </c>
       <c r="AG4" s="105" t="n">
-        <v>18426831173412.67</v>
+        <v>5469019099186.414</v>
       </c>
       <c r="AH4" s="105" t="n">
-        <v>18452747849105.79</v>
+        <v>5508871059046.453</v>
       </c>
       <c r="AI4" s="105" t="n">
-        <v>18480239660566.23</v>
+        <v>5549229273499.634</v>
       </c>
       <c r="AJ4" s="105" t="n">
-        <v>18506476197070.54</v>
+        <v>5589472994269.862</v>
       </c>
       <c r="AK4" s="105" t="n">
-        <v>18532683093802.85</v>
+        <v>5630453226946.441</v>
       </c>
       <c r="AL4" s="105" t="n">
-        <v>18559045437587.7</v>
+        <v>5671527102839.947</v>
       </c>
       <c r="AM4" s="105" t="n">
-        <v>18587173987309.55</v>
+        <v>5713468553461.041</v>
       </c>
       <c r="AN4" s="105" t="n">
-        <v>18614354026362.87</v>
+        <v>5755588419636.304</v>
       </c>
       <c r="AO4" s="105" t="n">
-        <v>18642016194093.5</v>
+        <v>5798655248400.057</v>
       </c>
     </row>
     <row r="5">
@@ -49761,100 +49761,100 @@
         </is>
       </c>
       <c r="J5" s="93" t="n">
-        <v>783799546.2708328</v>
+        <v>11499.62475042266</v>
       </c>
       <c r="K5" s="93" t="n">
-        <v>783093448.2624614</v>
+        <v>11650.0573141285</v>
       </c>
       <c r="L5" s="93" t="n">
-        <v>782835078.4070069</v>
+        <v>11799.32624927354</v>
       </c>
       <c r="M5" s="93" t="n">
-        <v>782548945.0763557</v>
+        <v>11944.48955987893</v>
       </c>
       <c r="N5" s="93" t="n">
-        <v>782462411.9387571</v>
+        <v>12084.86909856384</v>
       </c>
       <c r="O5" s="93" t="n">
-        <v>782797732.8149946</v>
+        <v>12224.11842458108</v>
       </c>
       <c r="P5" s="93" t="n">
-        <v>783149701.2987951</v>
+        <v>12365.83376630707</v>
       </c>
       <c r="Q5" s="93" t="n">
-        <v>783414545.6234257</v>
+        <v>12507.30171429432</v>
       </c>
       <c r="R5" s="93" t="n">
-        <v>783773488.9026124</v>
+        <v>12649.02138215656</v>
       </c>
       <c r="S5" s="93" t="n">
-        <v>784142430.0872642</v>
+        <v>12788.27913393034</v>
       </c>
       <c r="T5" s="93" t="n">
-        <v>784427976.8946545</v>
+        <v>12919.68388281955</v>
       </c>
       <c r="U5" s="93" t="n">
-        <v>784706895.9770638</v>
+        <v>13051.52860231817</v>
       </c>
       <c r="V5" s="93" t="n">
-        <v>785212887.3830316</v>
+        <v>13179.50895913248</v>
       </c>
       <c r="W5" s="93" t="n">
-        <v>785739863.0833318</v>
+        <v>13303.80126564745</v>
       </c>
       <c r="X5" s="93" t="n">
-        <v>786131874.3739121</v>
+        <v>13422.43372255632</v>
       </c>
       <c r="Y5" s="93" t="n">
-        <v>786769223.1122236</v>
+        <v>13538.84798181387</v>
       </c>
       <c r="Z5" s="93" t="n">
-        <v>787517677.2140666</v>
+        <v>13651.55351081985</v>
       </c>
       <c r="AA5" s="93" t="n">
-        <v>788295300.4739403</v>
+        <v>13767.32088828304</v>
       </c>
       <c r="AB5" s="93" t="n">
-        <v>789243182.1622218</v>
+        <v>13878.69831579138</v>
       </c>
       <c r="AC5" s="93" t="n">
-        <v>790147637.8913716</v>
+        <v>13991.59998211645</v>
       </c>
       <c r="AD5" s="93" t="n">
-        <v>791244866.9923804</v>
+        <v>14099.31526190674</v>
       </c>
       <c r="AE5" s="93" t="n">
-        <v>792308863.7763689</v>
+        <v>14207.22395444358</v>
       </c>
       <c r="AF5" s="93" t="n">
-        <v>793724582.708259</v>
+        <v>14297.43960708205</v>
       </c>
       <c r="AG5" s="93" t="n">
-        <v>795187964.2320082</v>
+        <v>14389.69239069459</v>
       </c>
       <c r="AH5" s="93" t="n">
-        <v>796462090.6609994</v>
+        <v>14477.90711725084</v>
       </c>
       <c r="AI5" s="93" t="n">
-        <v>797801565.7067616</v>
+        <v>14568.49470150426</v>
       </c>
       <c r="AJ5" s="93" t="n">
-        <v>798969780.8729844</v>
+        <v>14655.29658683376</v>
       </c>
       <c r="AK5" s="93" t="n">
-        <v>800098399.6017504</v>
+        <v>14744.83249972738</v>
       </c>
       <c r="AL5" s="93" t="n">
-        <v>801192226.8968325</v>
+        <v>14830.75990925795</v>
       </c>
       <c r="AM5" s="93" t="n">
-        <v>802382267.1777916</v>
+        <v>14919.68337914596</v>
       </c>
       <c r="AN5" s="93" t="n">
-        <v>803428891.5307893</v>
+        <v>15005.20615793451</v>
       </c>
       <c r="AO5" s="93" t="n">
-        <v>804461974.4450099</v>
+        <v>15094.0329942437</v>
       </c>
     </row>
     <row r="6">
@@ -49869,100 +49869,100 @@
         </is>
       </c>
       <c r="J6" s="105" t="n">
-        <v>89964100258728.08</v>
+        <v>22872320342230.31</v>
       </c>
       <c r="K6" s="105" t="n">
-        <v>90400077203781.8</v>
+        <v>23040740251607.94</v>
       </c>
       <c r="L6" s="105" t="n">
-        <v>90802090814138.16</v>
+        <v>23196245161231.38</v>
       </c>
       <c r="M6" s="105" t="n">
-        <v>91105245548383.14</v>
+        <v>23335674351708.57</v>
       </c>
       <c r="N6" s="105" t="n">
-        <v>91323623804769.06</v>
+        <v>23459968389691.66</v>
       </c>
       <c r="O6" s="105" t="n">
-        <v>91533306699989.8</v>
+        <v>23569879504727.56</v>
       </c>
       <c r="P6" s="105" t="n">
-        <v>91680408153451.67</v>
+        <v>23682591105086.1</v>
       </c>
       <c r="Q6" s="105" t="n">
-        <v>91834237577412.52</v>
+        <v>23799002569375.96</v>
       </c>
       <c r="R6" s="105" t="n">
-        <v>92018086946379.5</v>
+        <v>23917094923214.41</v>
       </c>
       <c r="S6" s="105" t="n">
-        <v>92185426028620.05</v>
+        <v>24036576180654.5</v>
       </c>
       <c r="T6" s="105" t="n">
-        <v>92336812850337.19</v>
+        <v>24142872323556.13</v>
       </c>
       <c r="U6" s="105" t="n">
-        <v>92494835414647.77</v>
+        <v>24257690261362.7</v>
       </c>
       <c r="V6" s="105" t="n">
-        <v>92682331269523.28</v>
+        <v>24373361861925.09</v>
       </c>
       <c r="W6" s="105" t="n">
-        <v>92886853423134.33</v>
+        <v>24491713374425.56</v>
       </c>
       <c r="X6" s="105" t="n">
-        <v>93108311554807.23</v>
+        <v>24611135764016.36</v>
       </c>
       <c r="Y6" s="105" t="n">
-        <v>93376094007782.44</v>
+        <v>24738908790572.19</v>
       </c>
       <c r="Z6" s="105" t="n">
-        <v>93700533390717.89</v>
+        <v>24871190254130.66</v>
       </c>
       <c r="AA6" s="105" t="n">
-        <v>94060190531790.59</v>
+        <v>25027745419292.35</v>
       </c>
       <c r="AB6" s="105" t="n">
-        <v>94496638266251.06</v>
+        <v>25192682498443.88</v>
       </c>
       <c r="AC6" s="105" t="n">
-        <v>94978659010654.97</v>
+        <v>25371630434768.04</v>
       </c>
       <c r="AD6" s="105" t="n">
-        <v>95537302233120.23</v>
+        <v>25557486148323.7</v>
       </c>
       <c r="AE6" s="105" t="n">
-        <v>96122180609876.72</v>
+        <v>25753897357448.93</v>
       </c>
       <c r="AF6" s="105" t="n">
-        <v>95951182659240.08</v>
+        <v>25859787723366.36</v>
       </c>
       <c r="AG6" s="105" t="n">
-        <v>95832459037548.05</v>
+        <v>25978684698096.72</v>
       </c>
       <c r="AH6" s="105" t="n">
-        <v>95737980673983.69</v>
+        <v>26102650527863.27</v>
       </c>
       <c r="AI6" s="105" t="n">
-        <v>95685616152590.73</v>
+        <v>26238353006667.89</v>
       </c>
       <c r="AJ6" s="105" t="n">
-        <v>95646355001499.17</v>
+        <v>26377633933993.52</v>
       </c>
       <c r="AK6" s="105" t="n">
-        <v>95625415847863.7</v>
+        <v>26526301610147.84</v>
       </c>
       <c r="AL6" s="105" t="n">
-        <v>95616662291671.02</v>
+        <v>26675608707779.2</v>
       </c>
       <c r="AM6" s="105" t="n">
-        <v>95626279881964.73</v>
+        <v>26831621212408.86</v>
       </c>
       <c r="AN6" s="105" t="n">
-        <v>95627467335781.16</v>
+        <v>26985678706588.83</v>
       </c>
       <c r="AO6" s="105" t="n">
-        <v>95628900915597.08</v>
+        <v>27144589872772.67</v>
       </c>
     </row>
     <row r="7">
@@ -49977,100 +49977,100 @@
         </is>
       </c>
       <c r="J7" s="105" t="n">
-        <v>1319461374225.082</v>
+        <v>108196091650.2908</v>
       </c>
       <c r="K7" s="105" t="n">
-        <v>1328451650600.252</v>
+        <v>109142221231.9084</v>
       </c>
       <c r="L7" s="105" t="n">
-        <v>1336941425122.018</v>
+        <v>109967782419.291</v>
       </c>
       <c r="M7" s="105" t="n">
-        <v>1343391109215.891</v>
+        <v>110637155501.9386</v>
       </c>
       <c r="N7" s="105" t="n">
-        <v>1348008176057.45</v>
+        <v>111127262523.6604</v>
       </c>
       <c r="O7" s="105" t="n">
-        <v>1351620317946.875</v>
+        <v>111399115582.5979</v>
       </c>
       <c r="P7" s="105" t="n">
-        <v>1352543157752.059</v>
+        <v>111503718596.6903</v>
       </c>
       <c r="Q7" s="105" t="n">
-        <v>1351053322622.898</v>
+        <v>111367208029.7424</v>
       </c>
       <c r="R7" s="105" t="n">
-        <v>1346811479024.334</v>
+        <v>110904939036.7932</v>
       </c>
       <c r="S7" s="105" t="n">
-        <v>1338047710023.531</v>
+        <v>110005586382.6418</v>
       </c>
       <c r="T7" s="105" t="n">
-        <v>1324343807641.154</v>
+        <v>108507906526.235</v>
       </c>
       <c r="U7" s="105" t="n">
-        <v>1305910686941.087</v>
+        <v>106504790526.1205</v>
       </c>
       <c r="V7" s="105" t="n">
-        <v>1283177787022.361</v>
+        <v>103961290471.4161</v>
       </c>
       <c r="W7" s="105" t="n">
-        <v>1256845287056.76</v>
+        <v>100955883554.4505</v>
       </c>
       <c r="X7" s="105" t="n">
-        <v>1227551182416.475</v>
+        <v>97504575657.62677</v>
       </c>
       <c r="Y7" s="105" t="n">
-        <v>1196166535080.652</v>
+        <v>93667206277.21188</v>
       </c>
       <c r="Z7" s="105" t="n">
-        <v>1163693380888.635</v>
+        <v>89482221842.29738</v>
       </c>
       <c r="AA7" s="105" t="n">
-        <v>1130867880360.548</v>
+        <v>85142261409.30092</v>
       </c>
       <c r="AB7" s="105" t="n">
-        <v>1098266544833.811</v>
+        <v>80656904397.5591</v>
       </c>
       <c r="AC7" s="105" t="n">
-        <v>1065566093133.135</v>
+        <v>76130572299.60271</v>
       </c>
       <c r="AD7" s="105" t="n">
-        <v>1033033355619.16</v>
+        <v>71604036571.14812</v>
       </c>
       <c r="AE7" s="105" t="n">
-        <v>999447587400.8047</v>
+        <v>67167380698.47945</v>
       </c>
       <c r="AF7" s="105" t="n">
-        <v>957356384897.8947</v>
+        <v>62637585153.82416</v>
       </c>
       <c r="AG7" s="105" t="n">
-        <v>915160440327.6639</v>
+        <v>58382208589.54027</v>
       </c>
       <c r="AH7" s="105" t="n">
-        <v>872546791829.7437</v>
+        <v>54410301668.49251</v>
       </c>
       <c r="AI7" s="105" t="n">
-        <v>830109381166.8118</v>
+        <v>50783359843.43028</v>
       </c>
       <c r="AJ7" s="105" t="n">
-        <v>788176481559.1917</v>
+        <v>47514710931.15046</v>
       </c>
       <c r="AK7" s="105" t="n">
-        <v>747491276159.7771</v>
+        <v>44652065278.55478</v>
       </c>
       <c r="AL7" s="105" t="n">
-        <v>708532396397.5194</v>
+        <v>42189247616.23968</v>
       </c>
       <c r="AM7" s="105" t="n">
-        <v>671757509466.4576</v>
+        <v>40143961967.41682</v>
       </c>
       <c r="AN7" s="105" t="n">
-        <v>637207919840.1277</v>
+        <v>38481460453.50199</v>
       </c>
       <c r="AO7" s="105" t="n">
-        <v>605260803487.0706</v>
+        <v>37189073281.39201</v>
       </c>
     </row>
     <row r="8">
@@ -50188,100 +50188,100 @@
         </is>
       </c>
       <c r="J9" s="105" t="n">
-        <v>10583292848751.86</v>
+        <v>1891989507040.489</v>
       </c>
       <c r="K9" s="105" t="n">
-        <v>10626282966786.27</v>
+        <v>1906279402108.926</v>
       </c>
       <c r="L9" s="105" t="n">
-        <v>10663629312688.83</v>
+        <v>1919540813892.115</v>
       </c>
       <c r="M9" s="105" t="n">
-        <v>10689149862082.72</v>
+        <v>1931508080436.637</v>
       </c>
       <c r="N9" s="105" t="n">
-        <v>10704139667242.19</v>
+        <v>1942258510455.563</v>
       </c>
       <c r="O9" s="105" t="n">
-        <v>10716199626874.82</v>
+        <v>1952218829533.443</v>
       </c>
       <c r="P9" s="105" t="n">
-        <v>10720666701763.86</v>
+        <v>1962811156996.593</v>
       </c>
       <c r="Q9" s="105" t="n">
-        <v>10724847998534.48</v>
+        <v>1973690788060.735</v>
       </c>
       <c r="R9" s="105" t="n">
-        <v>10731599903735.28</v>
+        <v>1984930210260.631</v>
       </c>
       <c r="S9" s="105" t="n">
-        <v>10737490789409.29</v>
+        <v>1996321917759.861</v>
       </c>
       <c r="T9" s="105" t="n">
-        <v>10741080222551.89</v>
+        <v>2006757440587.922</v>
       </c>
       <c r="U9" s="105" t="n">
-        <v>10743566760266.71</v>
+        <v>2018220661312.581</v>
       </c>
       <c r="V9" s="105" t="n">
-        <v>10751461892892.18</v>
+        <v>2029959672640.522</v>
       </c>
       <c r="W9" s="105" t="n">
-        <v>10762341055884.39</v>
+        <v>2042335653133.728</v>
       </c>
       <c r="X9" s="105" t="n">
-        <v>10774264443714.67</v>
+        <v>2055059800587.325</v>
       </c>
       <c r="Y9" s="105" t="n">
-        <v>10794288177069.33</v>
+        <v>2068626913550.568</v>
       </c>
       <c r="Z9" s="105" t="n">
-        <v>10823712770457.42</v>
+        <v>2082701251409.318</v>
       </c>
       <c r="AA9" s="105" t="n">
-        <v>10860142656739.73</v>
+        <v>2099305127309.313</v>
       </c>
       <c r="AB9" s="105" t="n">
-        <v>10911324285026.63</v>
+        <v>2116894600257.966</v>
       </c>
       <c r="AC9" s="105" t="n">
-        <v>10969945324168.46</v>
+        <v>2136010681911.202</v>
       </c>
       <c r="AD9" s="105" t="n">
-        <v>11036311335279.38</v>
+        <v>2155353224239.342</v>
       </c>
       <c r="AE9" s="105" t="n">
-        <v>11102683699817.24</v>
+        <v>2175282617678.618</v>
       </c>
       <c r="AF9" s="105" t="n">
-        <v>11090499191966.55</v>
+        <v>2187225942739.533</v>
       </c>
       <c r="AG9" s="105" t="n">
-        <v>11077625179210.29</v>
+        <v>2199159280643.224</v>
       </c>
       <c r="AH9" s="105" t="n">
-        <v>11059380041835.16</v>
+        <v>2209775059214.068</v>
       </c>
       <c r="AI9" s="105" t="n">
-        <v>11039630076410.28</v>
+        <v>2219985853308.759</v>
       </c>
       <c r="AJ9" s="105" t="n">
-        <v>11016812369744.82</v>
+        <v>2229102341548.351</v>
       </c>
       <c r="AK9" s="105" t="n">
-        <v>10994609461555.34</v>
+        <v>2238499757824.276</v>
       </c>
       <c r="AL9" s="105" t="n">
-        <v>10974181054486.8</v>
+        <v>2247514811178.651</v>
       </c>
       <c r="AM9" s="105" t="n">
-        <v>10957660330951.84</v>
+        <v>2257296366676.601</v>
       </c>
       <c r="AN9" s="105" t="n">
-        <v>10941526805060.71</v>
+        <v>2266840862567.264</v>
       </c>
       <c r="AO9" s="105" t="n">
-        <v>10927502669621.18</v>
+        <v>2277133965251.565</v>
       </c>
     </row>
     <row r="10">
@@ -50291,100 +50291,100 @@
         </is>
       </c>
       <c r="J10" s="93" t="n">
-        <v>61962010794.62445</v>
+        <v>11037989381.19347</v>
       </c>
       <c r="K10" s="93" t="n">
-        <v>62055946100.62724</v>
+        <v>11116865035.12882</v>
       </c>
       <c r="L10" s="93" t="n">
-        <v>62181007725.20142</v>
+        <v>11197930712.75169</v>
       </c>
       <c r="M10" s="93" t="n">
-        <v>62298027251.45837</v>
+        <v>11277546640.84727</v>
       </c>
       <c r="N10" s="93" t="n">
-        <v>62425080812.86737</v>
+        <v>11354792410.80097</v>
       </c>
       <c r="O10" s="93" t="n">
-        <v>62579637881.94682</v>
+        <v>11432923915.3481</v>
       </c>
       <c r="P10" s="93" t="n">
-        <v>62731423959.9142</v>
+        <v>11513791198.47625</v>
       </c>
       <c r="Q10" s="93" t="n">
-        <v>62871260547.33166</v>
+        <v>11592843175.69736</v>
       </c>
       <c r="R10" s="93" t="n">
-        <v>63010835864.83701</v>
+        <v>11671045325.77421</v>
       </c>
       <c r="S10" s="93" t="n">
-        <v>63140411283.66298</v>
+        <v>11747068258.53464</v>
       </c>
       <c r="T10" s="93" t="n">
-        <v>63252852586.54164</v>
+        <v>11816071530.84566</v>
       </c>
       <c r="U10" s="93" t="n">
-        <v>63353652038.67822</v>
+        <v>11885403167.02033</v>
       </c>
       <c r="V10" s="93" t="n">
-        <v>63462912739.67428</v>
+        <v>11950724256.07897</v>
       </c>
       <c r="W10" s="93" t="n">
-        <v>63564509690.16593</v>
+        <v>12012914139.11287</v>
       </c>
       <c r="X10" s="93" t="n">
-        <v>63648011201.26387</v>
+        <v>12071111448.06254</v>
       </c>
       <c r="Y10" s="93" t="n">
-        <v>63746732441.87119</v>
+        <v>12128085833.47394</v>
       </c>
       <c r="Z10" s="93" t="n">
-        <v>63853710325.77925</v>
+        <v>12182625753.74634</v>
       </c>
       <c r="AA10" s="93" t="n">
-        <v>63964535442.73643</v>
+        <v>12241215480.50668</v>
       </c>
       <c r="AB10" s="93" t="n">
-        <v>64094046109.87402</v>
+        <v>12297593251.02612</v>
       </c>
       <c r="AC10" s="93" t="n">
-        <v>64224881143.64561</v>
+        <v>12357144148.02604</v>
       </c>
       <c r="AD10" s="93" t="n">
-        <v>64375372836.04724</v>
+        <v>12414054253.66206</v>
       </c>
       <c r="AE10" s="93" t="n">
-        <v>64525415265.24987</v>
+        <v>12473206187.48359</v>
       </c>
       <c r="AF10" s="93" t="n">
-        <v>64612668869.82205</v>
+        <v>12547945650.28132</v>
       </c>
       <c r="AG10" s="93" t="n">
-        <v>64706563409.18813</v>
+        <v>12624883960.52195</v>
       </c>
       <c r="AH10" s="93" t="n">
-        <v>64787275082.24803</v>
+        <v>12698606392.59657</v>
       </c>
       <c r="AI10" s="93" t="n">
-        <v>64875358732.06457</v>
+        <v>12774715666.43966</v>
       </c>
       <c r="AJ10" s="93" t="n">
-        <v>64951605769.65999</v>
+        <v>12847821622.08871</v>
       </c>
       <c r="AK10" s="93" t="n">
-        <v>65026807041.75305</v>
+        <v>12923657917.97114</v>
       </c>
       <c r="AL10" s="93" t="n">
-        <v>65101400449.96065</v>
+        <v>12996675355.62051</v>
       </c>
       <c r="AM10" s="93" t="n">
-        <v>65186012142.93646</v>
+        <v>13072661727.1912</v>
       </c>
       <c r="AN10" s="93" t="n">
-        <v>65261077718.39108</v>
+        <v>13145997450.01453</v>
       </c>
       <c r="AO10" s="93" t="n">
-        <v>65336989808.26321</v>
+        <v>13222532311.74888</v>
       </c>
     </row>
     <row r="11">
@@ -50502,100 +50502,100 @@
         </is>
       </c>
       <c r="J12" s="105" t="n">
-        <v>14326586408741.45</v>
+        <v>2274901826548.434</v>
       </c>
       <c r="K12" s="105" t="n">
-        <v>14364163588732.22</v>
+        <v>2277829707765.783</v>
       </c>
       <c r="L12" s="105" t="n">
-        <v>14407187041772</v>
+        <v>2283603744746.897</v>
       </c>
       <c r="M12" s="105" t="n">
-        <v>14447927313455.26</v>
+        <v>2291841830850.142</v>
       </c>
       <c r="N12" s="105" t="n">
-        <v>14487098662608.67</v>
+        <v>2302155742805.854</v>
       </c>
       <c r="O12" s="105" t="n">
-        <v>14535098663062.72</v>
+        <v>2314146095757.509</v>
       </c>
       <c r="P12" s="105" t="n">
-        <v>14584401855531.26</v>
+        <v>2329497378671.604</v>
       </c>
       <c r="Q12" s="105" t="n">
-        <v>14645698994459.05</v>
+        <v>2347710860301.254</v>
       </c>
       <c r="R12" s="105" t="n">
-        <v>14722713604991.69</v>
+        <v>2368337381018.433</v>
       </c>
       <c r="S12" s="105" t="n">
-        <v>14808985628195.81</v>
+        <v>2391207527795.061</v>
       </c>
       <c r="T12" s="105" t="n">
-        <v>14902493787200.76</v>
+        <v>2414579659735.719</v>
       </c>
       <c r="U12" s="105" t="n">
-        <v>15002705735026.07</v>
+        <v>2440527624535.237</v>
       </c>
       <c r="V12" s="105" t="n">
-        <v>15112696692018.38</v>
+        <v>2467152757102.417</v>
       </c>
       <c r="W12" s="105" t="n">
-        <v>15222829425379.49</v>
+        <v>2494153151203.985</v>
       </c>
       <c r="X12" s="105" t="n">
-        <v>15327055915241.86</v>
+        <v>2520469843433.336</v>
       </c>
       <c r="Y12" s="105" t="n">
-        <v>15429922425885.69</v>
+        <v>2546063771903.08</v>
       </c>
       <c r="Z12" s="105" t="n">
-        <v>15529189123916.36</v>
+        <v>2570039419803.474</v>
       </c>
       <c r="AA12" s="105" t="n">
-        <v>15616272708292.07</v>
+        <v>2594595297437.612</v>
       </c>
       <c r="AB12" s="105" t="n">
-        <v>15704972423004.38</v>
+        <v>2617827998777.389</v>
       </c>
       <c r="AC12" s="105" t="n">
-        <v>15789373847904.79</v>
+        <v>2640736055808.956</v>
       </c>
       <c r="AD12" s="105" t="n">
-        <v>15877792109846.63</v>
+        <v>2662987003822.465</v>
       </c>
       <c r="AE12" s="105" t="n">
-        <v>15966002794295.08</v>
+        <v>2685449697220.734</v>
       </c>
       <c r="AF12" s="105" t="n">
-        <v>15932490829227.56</v>
+        <v>2697069889118.682</v>
       </c>
       <c r="AG12" s="105" t="n">
-        <v>15906404252688.34</v>
+        <v>2709806160936.641</v>
       </c>
       <c r="AH12" s="105" t="n">
-        <v>15883369924800.68</v>
+        <v>2722745588084.088</v>
       </c>
       <c r="AI12" s="105" t="n">
-        <v>15867791616015.79</v>
+        <v>2736931048903.802</v>
       </c>
       <c r="AJ12" s="105" t="n">
-        <v>15854421261635.06</v>
+        <v>2751319311169.063</v>
       </c>
       <c r="AK12" s="105" t="n">
-        <v>15844602381011.64</v>
+        <v>2766745997980.841</v>
       </c>
       <c r="AL12" s="105" t="n">
-        <v>15837316755446.73</v>
+        <v>2782020592345.209</v>
       </c>
       <c r="AM12" s="105" t="n">
-        <v>15833911287881.58</v>
+        <v>2798009714390.845</v>
       </c>
       <c r="AN12" s="105" t="n">
-        <v>15829008131432.27</v>
+        <v>2813504558358.247</v>
       </c>
       <c r="AO12" s="105" t="n">
-        <v>15824336223253.75</v>
+        <v>2829466148244.417</v>
       </c>
     </row>
     <row r="13">
@@ -50828,100 +50828,100 @@
         </is>
       </c>
       <c r="J17" s="105" t="n">
-        <v>2749439295402.516</v>
+        <v>2350938936820.566</v>
       </c>
       <c r="K17" s="105" t="n">
-        <v>2674635209886.117</v>
+        <v>2298962692520.295</v>
       </c>
       <c r="L17" s="105" t="n">
-        <v>2600539776807.165</v>
+        <v>2251888293647.727</v>
       </c>
       <c r="M17" s="105" t="n">
-        <v>2533590807623.267</v>
+        <v>2205971430436.461</v>
       </c>
       <c r="N17" s="105" t="n">
-        <v>2471924939748.435</v>
+        <v>2163259809149.519</v>
       </c>
       <c r="O17" s="105" t="n">
-        <v>2416411093733.839</v>
+        <v>2124354194684.434</v>
       </c>
       <c r="P17" s="105" t="n">
-        <v>2367751985502.24</v>
+        <v>2091098162957.039</v>
       </c>
       <c r="Q17" s="105" t="n">
-        <v>2326680156272.067</v>
+        <v>2061613160092.416</v>
       </c>
       <c r="R17" s="105" t="n">
-        <v>2290911198686.843</v>
+        <v>2038602721299.216</v>
       </c>
       <c r="S17" s="105" t="n">
-        <v>2264687587738.041</v>
+        <v>2019355882957.326</v>
       </c>
       <c r="T17" s="105" t="n">
-        <v>2244854749452.417</v>
+        <v>2005905282010.617</v>
       </c>
       <c r="U17" s="105" t="n">
-        <v>2230295379959.751</v>
+        <v>1996252499748.359</v>
       </c>
       <c r="V17" s="105" t="n">
-        <v>2219967445279.988</v>
+        <v>1990076099202.668</v>
       </c>
       <c r="W17" s="105" t="n">
-        <v>2212808954046.403</v>
+        <v>1986681852647.143</v>
       </c>
       <c r="X17" s="105" t="n">
-        <v>2207910043451.842</v>
+        <v>1985368823439.864</v>
       </c>
       <c r="Y17" s="105" t="n">
-        <v>2204576296140.819</v>
+        <v>1986774881543.675</v>
       </c>
       <c r="Z17" s="105" t="n">
-        <v>2202378475864.48</v>
+        <v>1988261150534.486</v>
       </c>
       <c r="AA17" s="105" t="n">
-        <v>2201054851174.678</v>
+        <v>1992030128407.703</v>
       </c>
       <c r="AB17" s="105" t="n">
-        <v>2200433419857.355</v>
+        <v>1995615922416.687</v>
       </c>
       <c r="AC17" s="105" t="n">
-        <v>2200368619949.356</v>
+        <v>2001183385079.917</v>
       </c>
       <c r="AD17" s="105" t="n">
-        <v>2200755123403.514</v>
+        <v>2006323520959.064</v>
       </c>
       <c r="AE17" s="105" t="n">
-        <v>2201505165563.235</v>
+        <v>2013231077785.97</v>
       </c>
       <c r="AF17" s="105" t="n">
-        <v>2202737818579.068</v>
+        <v>2019482261915.478</v>
       </c>
       <c r="AG17" s="105" t="n">
-        <v>2204255510361.548</v>
+        <v>2027412300630.178</v>
       </c>
       <c r="AH17" s="105" t="n">
-        <v>2206015339236.017</v>
+        <v>2035819842635.213</v>
       </c>
       <c r="AI17" s="105" t="n">
-        <v>2207987993817.956</v>
+        <v>2043504256286.82</v>
       </c>
       <c r="AJ17" s="105" t="n">
-        <v>2210145962928.76</v>
+        <v>2052695770642.167</v>
       </c>
       <c r="AK17" s="105" t="n">
-        <v>2212459499976.366</v>
+        <v>2062183929158.32</v>
       </c>
       <c r="AL17" s="105" t="n">
-        <v>2214897712918.556</v>
+        <v>2070772194796.525</v>
       </c>
       <c r="AM17" s="105" t="n">
-        <v>2217431494106.876</v>
+        <v>2080676606818.404</v>
       </c>
       <c r="AN17" s="105" t="n">
-        <v>2220029624888.417</v>
+        <v>2090672860373.75</v>
       </c>
       <c r="AO17" s="105" t="n">
-        <v>2222670440008.809</v>
+        <v>2099575047481.896</v>
       </c>
     </row>
     <row r="18">
@@ -51039,100 +51039,100 @@
         </is>
       </c>
       <c r="J19" s="105" t="n">
-        <v>23727509113.31962</v>
+        <v>39701241564.58346</v>
       </c>
       <c r="K19" s="105" t="n">
-        <v>23406349775.69217</v>
+        <v>39355700599.2012</v>
       </c>
       <c r="L19" s="105" t="n">
-        <v>23070141098.4566</v>
+        <v>39083260363.34038</v>
       </c>
       <c r="M19" s="105" t="n">
-        <v>22774103755.94929</v>
+        <v>38822439221.67338</v>
       </c>
       <c r="N19" s="105" t="n">
-        <v>22497327533.73509</v>
+        <v>38603809001.57306</v>
       </c>
       <c r="O19" s="105" t="n">
-        <v>22236414581.92578</v>
+        <v>38417339625.51215</v>
       </c>
       <c r="P19" s="105" t="n">
-        <v>21989176054.73749</v>
+        <v>38277547370.76111</v>
       </c>
       <c r="Q19" s="105" t="n">
-        <v>21757242590.92054</v>
+        <v>38139229150.52357</v>
       </c>
       <c r="R19" s="105" t="n">
-        <v>21518086106.20995</v>
+        <v>38043911360.81105</v>
       </c>
       <c r="S19" s="105" t="n">
-        <v>21319876020.1844</v>
+        <v>37945056602.1215</v>
       </c>
       <c r="T19" s="105" t="n">
-        <v>21148579523.15014</v>
+        <v>37903813843.37173</v>
       </c>
       <c r="U19" s="105" t="n">
-        <v>21008136347.19313</v>
+        <v>37912246927.30489</v>
       </c>
       <c r="V19" s="105" t="n">
-        <v>20887234280.89876</v>
+        <v>37952293638.66803</v>
       </c>
       <c r="W19" s="105" t="n">
-        <v>20776930492.84235</v>
+        <v>37996486583.9854</v>
       </c>
       <c r="X19" s="105" t="n">
-        <v>20685152787.31879</v>
+        <v>38056705198.982</v>
       </c>
       <c r="Y19" s="105" t="n">
-        <v>20617756254.86133</v>
+        <v>38180818965.45107</v>
       </c>
       <c r="Z19" s="105" t="n">
-        <v>20569977516.36637</v>
+        <v>38322726825.57716</v>
       </c>
       <c r="AA19" s="105" t="n">
-        <v>20534767806.15708</v>
+        <v>38511479990.53083</v>
       </c>
       <c r="AB19" s="105" t="n">
-        <v>20509790970.02042</v>
+        <v>38691388268.92422</v>
       </c>
       <c r="AC19" s="105" t="n">
-        <v>20497092821.59621</v>
+        <v>38915800566.7142</v>
       </c>
       <c r="AD19" s="105" t="n">
-        <v>20494313512.84724</v>
+        <v>39140961379.16251</v>
       </c>
       <c r="AE19" s="105" t="n">
-        <v>20502036118.17081</v>
+        <v>39415350084.87933</v>
       </c>
       <c r="AF19" s="105" t="n">
-        <v>20540065274.74746</v>
+        <v>39706337188.31974</v>
       </c>
       <c r="AG19" s="105" t="n">
-        <v>20661600037.76436</v>
+        <v>40079477050.78239</v>
       </c>
       <c r="AH19" s="105" t="n">
-        <v>20794380534.56575</v>
+        <v>40477889956.12215</v>
       </c>
       <c r="AI19" s="105" t="n">
-        <v>20935650359.89789</v>
+        <v>40879971498.20979</v>
       </c>
       <c r="AJ19" s="105" t="n">
-        <v>21083011332.11334</v>
+        <v>41326939373.98042</v>
       </c>
       <c r="AK19" s="105" t="n">
-        <v>21233092665.46825</v>
+        <v>41785899423.8969</v>
       </c>
       <c r="AL19" s="105" t="n">
-        <v>21382234264.8891</v>
+        <v>42222592743.66786</v>
       </c>
       <c r="AM19" s="105" t="n">
-        <v>21526229566.04277</v>
+        <v>42671330563.12344</v>
       </c>
       <c r="AN19" s="105" t="n">
-        <v>21664323416.2455</v>
+        <v>43105277122.83966</v>
       </c>
       <c r="AO19" s="105" t="n">
-        <v>21797244847.5839</v>
+        <v>43504871483.26131</v>
       </c>
     </row>
     <row r="20">
@@ -51978,100 +51978,100 @@
         </is>
       </c>
       <c r="J30" s="105" t="n">
-        <v>3495341342416.494</v>
+        <v>1496920324007.99</v>
       </c>
       <c r="K30" s="105" t="n">
-        <v>3396237980150.462</v>
+        <v>1473072688934.188</v>
       </c>
       <c r="L30" s="105" t="n">
-        <v>3355476090962.335</v>
+        <v>1473366153995.046</v>
       </c>
       <c r="M30" s="105" t="n">
-        <v>3330236707756.357</v>
+        <v>1480944702086.283</v>
       </c>
       <c r="N30" s="105" t="n">
-        <v>3305790845264.396</v>
+        <v>1489636058357.929</v>
       </c>
       <c r="O30" s="105" t="n">
-        <v>3285227406137.226</v>
+        <v>1499252386890.574</v>
       </c>
       <c r="P30" s="105" t="n">
-        <v>3273721260874.334</v>
+        <v>1513806773761.279</v>
       </c>
       <c r="Q30" s="105" t="n">
-        <v>3272492954061.909</v>
+        <v>1532199681608.781</v>
       </c>
       <c r="R30" s="105" t="n">
-        <v>3274704916308.955</v>
+        <v>1553040160479.839</v>
       </c>
       <c r="S30" s="105" t="n">
-        <v>3277112674950.12</v>
+        <v>1573277973861.996</v>
       </c>
       <c r="T30" s="105" t="n">
-        <v>3279903557270.888</v>
+        <v>1594079446460.32</v>
       </c>
       <c r="U30" s="105" t="n">
-        <v>3284839385981.83</v>
+        <v>1615695761356.558</v>
       </c>
       <c r="V30" s="105" t="n">
-        <v>3294544437731.425</v>
+        <v>1639927226017.174</v>
       </c>
       <c r="W30" s="105" t="n">
-        <v>3308635433488.411</v>
+        <v>1666035751657.913</v>
       </c>
       <c r="X30" s="105" t="n">
-        <v>3325654371626.016</v>
+        <v>1694011209424.155</v>
       </c>
       <c r="Y30" s="105" t="n">
-        <v>3344436280544.353</v>
+        <v>1722213009902.389</v>
       </c>
       <c r="Z30" s="105" t="n">
-        <v>3361349273168.844</v>
+        <v>1750268836039.774</v>
       </c>
       <c r="AA30" s="105" t="n">
-        <v>3372235444175.569</v>
+        <v>1772165021377.724</v>
       </c>
       <c r="AB30" s="105" t="n">
-        <v>3381332343685.088</v>
+        <v>1793771097341.315</v>
       </c>
       <c r="AC30" s="105" t="n">
-        <v>3389330833172.881</v>
+        <v>1815233451615.331</v>
       </c>
       <c r="AD30" s="105" t="n">
-        <v>3396587075077.028</v>
+        <v>1836615251295.571</v>
       </c>
       <c r="AE30" s="105" t="n">
-        <v>3403287251878.101</v>
+        <v>1857957410205.279</v>
       </c>
       <c r="AF30" s="105" t="n">
-        <v>3396067068953.433</v>
+        <v>1878365745739.882</v>
       </c>
       <c r="AG30" s="105" t="n">
-        <v>3389603690926.881</v>
+        <v>1899489416107.212</v>
       </c>
       <c r="AH30" s="105" t="n">
-        <v>3384217280533.195</v>
+        <v>1921488602188.393</v>
       </c>
       <c r="AI30" s="105" t="n">
-        <v>3380141096162.664</v>
+        <v>1944491743187.203</v>
       </c>
       <c r="AJ30" s="105" t="n">
-        <v>3377338761564.312</v>
+        <v>1968476946441.783</v>
       </c>
       <c r="AK30" s="105" t="n">
-        <v>3375672940387.149</v>
+        <v>1993374432712.417</v>
       </c>
       <c r="AL30" s="105" t="n">
-        <v>3374923628503.483</v>
+        <v>2019069124554.139</v>
       </c>
       <c r="AM30" s="105" t="n">
-        <v>3374867633176.997</v>
+        <v>2045435796286.895</v>
       </c>
       <c r="AN30" s="105" t="n">
-        <v>3375367008598.23</v>
+        <v>2072403098858.729</v>
       </c>
       <c r="AO30" s="105" t="n">
-        <v>3376355213525.014</v>
+        <v>2099945623353.025</v>
       </c>
     </row>
     <row r="31">
@@ -53153,100 +53153,100 @@
         </is>
       </c>
       <c r="J43" s="105" t="n">
-        <v>12031718869398.49</v>
+        <v>4686798943983.852</v>
       </c>
       <c r="K43" s="105" t="n">
-        <v>11942491454971.9</v>
+        <v>4678904970937.903</v>
       </c>
       <c r="L43" s="105" t="n">
-        <v>11854278244347.86</v>
+        <v>4671095796933.42</v>
       </c>
       <c r="M43" s="105" t="n">
-        <v>11764894248674.68</v>
+        <v>4662850644323.05</v>
       </c>
       <c r="N43" s="105" t="n">
-        <v>11677459304865.3</v>
+        <v>4655282222533.68</v>
       </c>
       <c r="O43" s="105" t="n">
-        <v>11594973729999.9</v>
+        <v>4649576360677.801</v>
       </c>
       <c r="P43" s="105" t="n">
-        <v>11520649123071.1</v>
+        <v>4646510640205.111</v>
       </c>
       <c r="Q43" s="105" t="n">
-        <v>11458273295347.4</v>
+        <v>4647257775971.237</v>
       </c>
       <c r="R43" s="105" t="n">
-        <v>11408167664916.06</v>
+        <v>4651967577350.933</v>
       </c>
       <c r="S43" s="105" t="n">
-        <v>11369357601694.18</v>
+        <v>4660762500860.615</v>
       </c>
       <c r="T43" s="105" t="n">
-        <v>11340311813748.51</v>
+        <v>4673134504019.895</v>
       </c>
       <c r="U43" s="105" t="n">
-        <v>11323632842842.62</v>
+        <v>4689948265808.58</v>
       </c>
       <c r="V43" s="105" t="n">
-        <v>11321207539427.4</v>
+        <v>4712118366573.235</v>
       </c>
       <c r="W43" s="105" t="n">
-        <v>11330055230528.57</v>
+        <v>4738595784745.04</v>
       </c>
       <c r="X43" s="105" t="n">
-        <v>11348230557677.03</v>
+        <v>4768621738883.417</v>
       </c>
       <c r="Y43" s="105" t="n">
-        <v>11377184994370.53</v>
+        <v>4802861765759.103</v>
       </c>
       <c r="Z43" s="105" t="n">
-        <v>11415843155210.77</v>
+        <v>4841158267350.331</v>
       </c>
       <c r="AA43" s="105" t="n">
-        <v>11462197684741.09</v>
+        <v>4883002126151.852</v>
       </c>
       <c r="AB43" s="105" t="n">
-        <v>11513196899655.11</v>
+        <v>4926858780290.337</v>
       </c>
       <c r="AC43" s="105" t="n">
-        <v>11567780344176.44</v>
+        <v>4971967657411.322</v>
       </c>
       <c r="AD43" s="105" t="n">
-        <v>11624959645617.82</v>
+        <v>5017834353269.054</v>
       </c>
       <c r="AE43" s="105" t="n">
-        <v>11684053240024.29</v>
+        <v>5064217614399.939</v>
       </c>
       <c r="AF43" s="105" t="n">
-        <v>11695106578533.28</v>
+        <v>5105164010264.525</v>
       </c>
       <c r="AG43" s="105" t="n">
-        <v>11707301454693.84</v>
+        <v>5146831310777.712</v>
       </c>
       <c r="AH43" s="105" t="n">
-        <v>11720552707283.82</v>
+        <v>5189196490640.2</v>
       </c>
       <c r="AI43" s="105" t="n">
-        <v>11734793868967.66</v>
+        <v>5232245910363.9</v>
       </c>
       <c r="AJ43" s="105" t="n">
-        <v>11749937857022.63</v>
+        <v>5275957411961.28</v>
       </c>
       <c r="AK43" s="105" t="n">
-        <v>11765880483825.68</v>
+        <v>5320300938078.787</v>
       </c>
       <c r="AL43" s="105" t="n">
-        <v>11782447165892.09</v>
+        <v>5365213454540.144</v>
       </c>
       <c r="AM43" s="105" t="n">
-        <v>11799505062562.74</v>
+        <v>5410648871567.034</v>
       </c>
       <c r="AN43" s="105" t="n">
-        <v>11816953845768.14</v>
+        <v>5456574091131.352</v>
       </c>
       <c r="AO43" s="105" t="n">
-        <v>11834711987556.54</v>
+        <v>5502962767059.062</v>
       </c>
     </row>
     <row r="44">
@@ -53374,100 +53374,100 @@
         </is>
       </c>
       <c r="J45" s="105" t="n">
-        <v>2539518210947.325</v>
+        <v>1287096302711.179</v>
       </c>
       <c r="K45" s="105" t="n">
-        <v>2546308833270.738</v>
+        <v>1296892476471.057</v>
       </c>
       <c r="L45" s="105" t="n">
-        <v>2553247400911.81</v>
+        <v>1306772297490.718</v>
       </c>
       <c r="M45" s="105" t="n">
-        <v>2559609427464.71</v>
+        <v>1316469846117.474</v>
       </c>
       <c r="N45" s="105" t="n">
-        <v>2565857110586.45</v>
+        <v>1326218272513.886</v>
       </c>
       <c r="O45" s="105" t="n">
-        <v>2572355667588.107</v>
+        <v>1336244265032.156</v>
       </c>
       <c r="P45" s="105" t="n">
-        <v>2579400953407.381</v>
+        <v>1346599259643.586</v>
       </c>
       <c r="Q45" s="105" t="n">
-        <v>2587433136551.433</v>
+        <v>1357415208983.095</v>
       </c>
       <c r="R45" s="105" t="n">
-        <v>2596276865286.631</v>
+        <v>1368557587755.229</v>
       </c>
       <c r="S45" s="105" t="n">
-        <v>2605781185712.805</v>
+        <v>1379995437619.552</v>
       </c>
       <c r="T45" s="105" t="n">
-        <v>2615924231824.936</v>
+        <v>1391665486842.393</v>
       </c>
       <c r="U45" s="105" t="n">
-        <v>2627726322489.619</v>
+        <v>1404046335247.228</v>
       </c>
       <c r="V45" s="105" t="n">
-        <v>2641398100307.223</v>
+        <v>1417342903425.744</v>
       </c>
       <c r="W45" s="105" t="n">
-        <v>2656173925899.887</v>
+        <v>1431224549404.925</v>
       </c>
       <c r="X45" s="105" t="n">
-        <v>2671442680144.11</v>
+        <v>1445368450020.35</v>
       </c>
       <c r="Y45" s="105" t="n">
-        <v>2687472412923.778</v>
+        <v>1459915457823.342</v>
       </c>
       <c r="Z45" s="105" t="n">
-        <v>2704186702792.236</v>
+        <v>1474900517361.386</v>
       </c>
       <c r="AA45" s="105" t="n">
-        <v>2721432921526.178</v>
+        <v>1490326398468.29</v>
       </c>
       <c r="AB45" s="105" t="n">
-        <v>2738786360696.128</v>
+        <v>1505884123168.133</v>
       </c>
       <c r="AC45" s="105" t="n">
-        <v>2756211031504.213</v>
+        <v>1521455833344.22</v>
       </c>
       <c r="AD45" s="105" t="n">
-        <v>2773581278043.279</v>
+        <v>1536944602874.284</v>
       </c>
       <c r="AE45" s="105" t="n">
-        <v>2790803570670.916</v>
+        <v>1552307856088.106</v>
       </c>
       <c r="AF45" s="105" t="n">
-        <v>2796651250469.37</v>
+        <v>1566547387088.023</v>
       </c>
       <c r="AG45" s="105" t="n">
-        <v>2802238917168.921</v>
+        <v>1580748811752.269</v>
       </c>
       <c r="AH45" s="105" t="n">
-        <v>2807593739462.42</v>
+        <v>1594925394777.875</v>
       </c>
       <c r="AI45" s="105" t="n">
-        <v>2812748828680.894</v>
+        <v>1609094208332.672</v>
       </c>
       <c r="AJ45" s="105" t="n">
-        <v>2817735848353.311</v>
+        <v>1623272001849.434</v>
       </c>
       <c r="AK45" s="105" t="n">
-        <v>2822586255316.625</v>
+        <v>1637475899417.867</v>
       </c>
       <c r="AL45" s="105" t="n">
-        <v>2827316879471.241</v>
+        <v>1651714978428.239</v>
       </c>
       <c r="AM45" s="105" t="n">
-        <v>2831953157418.915</v>
+        <v>1666003646484.102</v>
       </c>
       <c r="AN45" s="105" t="n">
-        <v>2836522210955.483</v>
+        <v>1680357721196.659</v>
       </c>
       <c r="AO45" s="105" t="n">
-        <v>2841046262244.99</v>
+        <v>1694790543363.704</v>
       </c>
     </row>
     <row r="46">
@@ -54007,100 +54007,100 @@
         </is>
       </c>
       <c r="J51" s="105" t="n">
-        <v>507724381294.3126</v>
+        <v>237733492720.518</v>
       </c>
       <c r="K51" s="105" t="n">
-        <v>508305007781.5693</v>
+        <v>238828022332.6084</v>
       </c>
       <c r="L51" s="105" t="n">
-        <v>508993280718.5984</v>
+        <v>240005719406.3245</v>
       </c>
       <c r="M51" s="105" t="n">
-        <v>509641991452.5157</v>
+        <v>241200056105.7154</v>
       </c>
       <c r="N51" s="105" t="n">
-        <v>510321805230.9646</v>
+        <v>242451131730.7012</v>
       </c>
       <c r="O51" s="105" t="n">
-        <v>511090030442.8629</v>
+        <v>243799296521.1245</v>
       </c>
       <c r="P51" s="105" t="n">
-        <v>511905235256.9059</v>
+        <v>245214976648.0181</v>
       </c>
       <c r="Q51" s="105" t="n">
-        <v>512781226699.3888</v>
+        <v>246663730119.1204</v>
       </c>
       <c r="R51" s="105" t="n">
-        <v>513682078211.0242</v>
+        <v>248112824564.1522</v>
       </c>
       <c r="S51" s="105" t="n">
-        <v>514620817047.0353</v>
+        <v>249572077676.7671</v>
       </c>
       <c r="T51" s="105" t="n">
-        <v>515599541173.7481</v>
+        <v>251037387744.4969</v>
       </c>
       <c r="U51" s="105" t="n">
-        <v>516834881167.6575</v>
+        <v>252599199535.3431</v>
       </c>
       <c r="V51" s="105" t="n">
-        <v>518351532044.5445</v>
+        <v>254290194542.3053</v>
       </c>
       <c r="W51" s="105" t="n">
-        <v>520001838487.0499</v>
+        <v>256054257254.7962</v>
       </c>
       <c r="X51" s="105" t="n">
-        <v>521660813988.7906</v>
+        <v>257840980105.8287</v>
       </c>
       <c r="Y51" s="105" t="n">
-        <v>523374096228.3547</v>
+        <v>259657832894.2396</v>
       </c>
       <c r="Z51" s="105" t="n">
-        <v>525132282792.5008</v>
+        <v>261513140045.917</v>
       </c>
       <c r="AA51" s="105" t="n">
-        <v>526952433393.0657</v>
+        <v>263423299072.5266</v>
       </c>
       <c r="AB51" s="105" t="n">
-        <v>528775184115.5012</v>
+        <v>265354865840.9476</v>
       </c>
       <c r="AC51" s="105" t="n">
-        <v>530623202876.2443</v>
+        <v>267300244946.3394</v>
       </c>
       <c r="AD51" s="105" t="n">
-        <v>532487943459.0104</v>
+        <v>269251480535.2745</v>
       </c>
       <c r="AE51" s="105" t="n">
-        <v>534366613492.2872</v>
+        <v>271209905809.0208</v>
       </c>
       <c r="AF51" s="105" t="n">
-        <v>535486300698.7141</v>
+        <v>273697755021.659</v>
       </c>
       <c r="AG51" s="105" t="n">
-        <v>536556194438.5122</v>
+        <v>276178942804.636</v>
       </c>
       <c r="AH51" s="105" t="n">
-        <v>537581504257.7205</v>
+        <v>278655790286.7229</v>
       </c>
       <c r="AI51" s="105" t="n">
-        <v>538568570362.658</v>
+        <v>281131280332.5059</v>
       </c>
       <c r="AJ51" s="105" t="n">
-        <v>539523455501.3367</v>
+        <v>283608339303.3339</v>
       </c>
       <c r="AK51" s="105" t="n">
-        <v>540452182843.5269</v>
+        <v>286089959017.361</v>
       </c>
       <c r="AL51" s="105" t="n">
-        <v>541357974879.3802</v>
+        <v>288577725421.7216</v>
       </c>
       <c r="AM51" s="105" t="n">
-        <v>542245702059.5046</v>
+        <v>291074155726.4166</v>
       </c>
       <c r="AN51" s="105" t="n">
-        <v>543120557505.5394</v>
+        <v>293582013489.5189</v>
       </c>
       <c r="AO51" s="105" t="n">
-        <v>543986796186.5022</v>
+        <v>296103629535.1305</v>
       </c>
     </row>
     <row r="52">
@@ -54338,100 +54338,100 @@
         </is>
       </c>
       <c r="J56" s="105" t="n">
-        <v>26955503722559.17</v>
+        <v>9399235335733.029</v>
       </c>
       <c r="K56" s="105" t="n">
-        <v>27160781287763.47</v>
+        <v>9394711579926.488</v>
       </c>
       <c r="L56" s="105" t="n">
-        <v>27353617383085.8</v>
+        <v>9383001610837.977</v>
       </c>
       <c r="M56" s="105" t="n">
-        <v>27575112132340.15</v>
+        <v>9389473140239.332</v>
       </c>
       <c r="N56" s="105" t="n">
-        <v>27805532804021.58</v>
+        <v>9398274152775.906</v>
       </c>
       <c r="O56" s="105" t="n">
-        <v>28061015009271.54</v>
+        <v>9412622137448.311</v>
       </c>
       <c r="P56" s="105" t="n">
-        <v>28332897325348.17</v>
+        <v>9421430281965.4</v>
       </c>
       <c r="Q56" s="105" t="n">
-        <v>28589584850388.93</v>
+        <v>9422220148807.268</v>
       </c>
       <c r="R56" s="105" t="n">
-        <v>28854954897861.52</v>
+        <v>9425083267526.117</v>
       </c>
       <c r="S56" s="105" t="n">
-        <v>29145819776107.81</v>
+        <v>9429452348505.262</v>
       </c>
       <c r="T56" s="105" t="n">
-        <v>29418100725613.23</v>
+        <v>9426571548418.062</v>
       </c>
       <c r="U56" s="105" t="n">
-        <v>29677793072577</v>
+        <v>9412612851015.35</v>
       </c>
       <c r="V56" s="105" t="n">
-        <v>29930033837951.88</v>
+        <v>9390361517562.043</v>
       </c>
       <c r="W56" s="105" t="n">
-        <v>30172377153209.59</v>
+        <v>9355410652723.979</v>
       </c>
       <c r="X56" s="105" t="n">
-        <v>30442033828772.21</v>
+        <v>9320980348171.934</v>
       </c>
       <c r="Y56" s="105" t="n">
-        <v>30752300625526.77</v>
+        <v>9294841193841.213</v>
       </c>
       <c r="Z56" s="105" t="n">
-        <v>31093600356507.75</v>
+        <v>9271180922779.174</v>
       </c>
       <c r="AA56" s="105" t="n">
-        <v>31435953188087.44</v>
+        <v>9242436441108.582</v>
       </c>
       <c r="AB56" s="105" t="n">
-        <v>31767433839228.35</v>
+        <v>9201506079233.129</v>
       </c>
       <c r="AC56" s="105" t="n">
-        <v>32108639375164.71</v>
+        <v>9151101252702.816</v>
       </c>
       <c r="AD56" s="105" t="n">
-        <v>32433941961719.85</v>
+        <v>9082162117521.619</v>
       </c>
       <c r="AE56" s="105" t="n">
-        <v>32738558374528.53</v>
+        <v>8988079110748.645</v>
       </c>
       <c r="AF56" s="105" t="n">
-        <v>32975027498414.36</v>
+        <v>8841674631973.828</v>
       </c>
       <c r="AG56" s="105" t="n">
-        <v>33213640501515.48</v>
+        <v>8674143963963.17</v>
       </c>
       <c r="AH56" s="105" t="n">
-        <v>33461520601495.26</v>
+        <v>8491560582455.62</v>
       </c>
       <c r="AI56" s="105" t="n">
-        <v>33708324617285.45</v>
+        <v>8294542072388.771</v>
       </c>
       <c r="AJ56" s="105" t="n">
-        <v>33952026790256.67</v>
+        <v>8077565234895.158</v>
       </c>
       <c r="AK56" s="105" t="n">
-        <v>34165154758868.72</v>
+        <v>7834152597256.344</v>
       </c>
       <c r="AL56" s="105" t="n">
-        <v>34345006444071.96</v>
+        <v>7558382386902.221</v>
       </c>
       <c r="AM56" s="105" t="n">
-        <v>34515545630385.02</v>
+        <v>7250337290231.861</v>
       </c>
       <c r="AN56" s="105" t="n">
-        <v>34696650863241.92</v>
+        <v>6917244306540.808</v>
       </c>
       <c r="AO56" s="105" t="n">
-        <v>34892101624612.48</v>
+        <v>6562551674115.866</v>
       </c>
     </row>
     <row r="57">
@@ -55498,100 +55498,100 @@
         </is>
       </c>
       <c r="J69" s="105" t="n">
-        <v>5947426314389.753</v>
+        <v>1369178604867.435</v>
       </c>
       <c r="K69" s="105" t="n">
-        <v>5980266300556.415</v>
+        <v>1376983393789.509</v>
       </c>
       <c r="L69" s="105" t="n">
-        <v>6011853087604.102</v>
+        <v>1384205088692.801</v>
       </c>
       <c r="M69" s="105" t="n">
-        <v>6038343339150.376</v>
+        <v>1390750429271.968</v>
       </c>
       <c r="N69" s="105" t="n">
-        <v>6061714725252.25</v>
+        <v>1396784447025.512</v>
       </c>
       <c r="O69" s="105" t="n">
-        <v>6085378654052.816</v>
+        <v>1402604924966.552</v>
       </c>
       <c r="P69" s="105" t="n">
-        <v>6107666495066.653</v>
+        <v>1408825524533.458</v>
       </c>
       <c r="Q69" s="105" t="n">
-        <v>6131739395235.585</v>
+        <v>1415588385133.469</v>
       </c>
       <c r="R69" s="105" t="n">
-        <v>6159245158823.857</v>
+        <v>1422862976882.873</v>
       </c>
       <c r="S69" s="105" t="n">
-        <v>6187668088384.284</v>
+        <v>1430793935970.165</v>
       </c>
       <c r="T69" s="105" t="n">
-        <v>6217399836160.997</v>
+        <v>1439012201631.194</v>
       </c>
       <c r="U69" s="105" t="n">
-        <v>6250139995022.338</v>
+        <v>1448102524501.285</v>
       </c>
       <c r="V69" s="105" t="n">
-        <v>6285893206418.96</v>
+        <v>1457886104625.59</v>
       </c>
       <c r="W69" s="105" t="n">
-        <v>6323739944679.751</v>
+        <v>1468317060020.286</v>
       </c>
       <c r="X69" s="105" t="n">
-        <v>6363521238638.923</v>
+        <v>1479301825972.352</v>
       </c>
       <c r="Y69" s="105" t="n">
-        <v>6405263096028.542</v>
+        <v>1491046056820.542</v>
       </c>
       <c r="Z69" s="105" t="n">
-        <v>6449468886782.542</v>
+        <v>1503439921048.239</v>
       </c>
       <c r="AA69" s="105" t="n">
-        <v>6495836765339.431</v>
+        <v>1516853513543.33</v>
       </c>
       <c r="AB69" s="105" t="n">
-        <v>6543706368170.893</v>
+        <v>1530699432960.47</v>
       </c>
       <c r="AC69" s="105" t="n">
-        <v>6592298884568.14</v>
+        <v>1544967780684.958</v>
       </c>
       <c r="AD69" s="105" t="n">
-        <v>6643226521314.714</v>
+        <v>1559316360835.886</v>
       </c>
       <c r="AE69" s="105" t="n">
-        <v>6693064148701.222</v>
+        <v>1573688235645.51</v>
       </c>
       <c r="AF69" s="105" t="n">
-        <v>6702308224145.375</v>
+        <v>1585208207282.852</v>
       </c>
       <c r="AG69" s="105" t="n">
-        <v>6712092664803.8</v>
+        <v>1596897049633.243</v>
       </c>
       <c r="AH69" s="105" t="n">
-        <v>6721532981870.733</v>
+        <v>1608533410005.812</v>
       </c>
       <c r="AI69" s="105" t="n">
-        <v>6731547052348.135</v>
+        <v>1620317591486.974</v>
       </c>
       <c r="AJ69" s="105" t="n">
-        <v>6741103880788.315</v>
+        <v>1632068341996.109</v>
       </c>
       <c r="AK69" s="105" t="n">
-        <v>6750649912749.468</v>
+        <v>1644034146369.375</v>
       </c>
       <c r="AL69" s="105" t="n">
-        <v>6760252567306.842</v>
+        <v>1656027293594.093</v>
       </c>
       <c r="AM69" s="105" t="n">
-        <v>6770498573822.169</v>
+        <v>1668273763672.087</v>
       </c>
       <c r="AN69" s="105" t="n">
-        <v>6780399079179.925</v>
+        <v>1680572329247.81</v>
       </c>
       <c r="AO69" s="105" t="n">
-        <v>6790475203032.694</v>
+        <v>1693147398111.644</v>
       </c>
     </row>
     <row r="70">
@@ -55601,100 +55601,100 @@
         </is>
       </c>
       <c r="J70" s="93" t="n">
-        <v>285504063.9212993</v>
+        <v>3357.771567952869</v>
       </c>
       <c r="K70" s="93" t="n">
-        <v>285246863.1460808</v>
+        <v>3401.696321696436</v>
       </c>
       <c r="L70" s="93" t="n">
-        <v>285152750.2519384</v>
+        <v>3445.281307927417</v>
       </c>
       <c r="M70" s="93" t="n">
-        <v>285048524.3320423</v>
+        <v>3487.667494228216</v>
       </c>
       <c r="N70" s="93" t="n">
-        <v>285017004.0759184</v>
+        <v>3528.656868572903</v>
       </c>
       <c r="O70" s="93" t="n">
-        <v>285139146.8780403</v>
+        <v>3569.31623250042</v>
       </c>
       <c r="P70" s="93" t="n">
-        <v>285267353.6790972</v>
+        <v>3610.695647526354</v>
       </c>
       <c r="Q70" s="93" t="n">
-        <v>285363824.940593</v>
+        <v>3652.002826137618</v>
       </c>
       <c r="R70" s="93" t="n">
-        <v>285494572.3560676</v>
+        <v>3693.383504350623</v>
       </c>
       <c r="S70" s="93" t="n">
-        <v>285628961.5733964</v>
+        <v>3734.045328511959</v>
       </c>
       <c r="T70" s="93" t="n">
-        <v>285732973.848394</v>
+        <v>3772.414156998989</v>
       </c>
       <c r="U70" s="93" t="n">
-        <v>285834571.9316181</v>
+        <v>3810.911452356467</v>
       </c>
       <c r="V70" s="93" t="n">
-        <v>286018882.5801766</v>
+        <v>3848.280393751862</v>
       </c>
       <c r="W70" s="93" t="n">
-        <v>286210836.8939285</v>
+        <v>3884.572462579231</v>
       </c>
       <c r="X70" s="93" t="n">
-        <v>286353629.5468411</v>
+        <v>3919.211913821353</v>
       </c>
       <c r="Y70" s="93" t="n">
-        <v>286585787.95493</v>
+        <v>3953.203674276401</v>
       </c>
       <c r="Z70" s="93" t="n">
-        <v>286858417.2116723</v>
+        <v>3986.112523831118</v>
       </c>
       <c r="AA70" s="93" t="n">
-        <v>287141671.5232498</v>
+        <v>4019.915401488329</v>
       </c>
       <c r="AB70" s="93" t="n">
-        <v>287486943.5706865</v>
+        <v>4052.436459132882</v>
       </c>
       <c r="AC70" s="93" t="n">
-        <v>287816397.4310999</v>
+        <v>4085.402578757515</v>
       </c>
       <c r="AD70" s="93" t="n">
-        <v>288216070.2414265</v>
+        <v>4116.854327120057</v>
       </c>
       <c r="AE70" s="93" t="n">
-        <v>288603637.9649256</v>
+        <v>4148.36255000549</v>
       </c>
       <c r="AF70" s="93" t="n">
-        <v>289119322.7600343</v>
+        <v>4174.704588114398</v>
       </c>
       <c r="AG70" s="93" t="n">
-        <v>289652368.9630917</v>
+        <v>4201.641447412117</v>
       </c>
       <c r="AH70" s="93" t="n">
-        <v>290116477.7714691</v>
+        <v>4227.399235786422</v>
       </c>
       <c r="AI70" s="93" t="n">
-        <v>290604390.2369787</v>
+        <v>4253.849874082639</v>
       </c>
       <c r="AJ70" s="93" t="n">
-        <v>291029920.1815646</v>
+        <v>4279.195127421742</v>
       </c>
       <c r="AK70" s="93" t="n">
-        <v>291441026.8672133</v>
+        <v>4305.338688550889</v>
       </c>
       <c r="AL70" s="93" t="n">
-        <v>291839460.5476866</v>
+        <v>4330.428603995217</v>
       </c>
       <c r="AM70" s="93" t="n">
-        <v>292272940.4317467</v>
+        <v>4356.393338096882</v>
       </c>
       <c r="AN70" s="93" t="n">
-        <v>292654180.1346804</v>
+        <v>4381.365105546768</v>
       </c>
       <c r="AO70" s="93" t="n">
-        <v>293030487.2807881</v>
+        <v>4407.301623642217</v>
       </c>
     </row>
     <row r="71">
@@ -55709,100 +55709,100 @@
         </is>
       </c>
       <c r="J71" s="105" t="n">
-        <v>32770006506248.84</v>
+        <v>6678481133519.443</v>
       </c>
       <c r="K71" s="105" t="n">
-        <v>32928813933710.42</v>
+        <v>6727658006283.456</v>
       </c>
       <c r="L71" s="105" t="n">
-        <v>33075249996418.68</v>
+        <v>6773063832607.611</v>
       </c>
       <c r="M71" s="105" t="n">
-        <v>33185676072876.27</v>
+        <v>6813775715098.368</v>
       </c>
       <c r="N71" s="105" t="n">
-        <v>33265221767903.6</v>
+        <v>6850068289496.531</v>
       </c>
       <c r="O71" s="105" t="n">
-        <v>33341600121278.69</v>
+        <v>6882161199054.816</v>
       </c>
       <c r="P71" s="105" t="n">
-        <v>33395182778951.69</v>
+        <v>6915071821381.73</v>
       </c>
       <c r="Q71" s="105" t="n">
-        <v>33451216143477.69</v>
+        <v>6949062765735.1</v>
       </c>
       <c r="R71" s="105" t="n">
-        <v>33518184467507.95</v>
+        <v>6983544512463.124</v>
       </c>
       <c r="S71" s="105" t="n">
-        <v>33579138812607.86</v>
+        <v>7018431804687.23</v>
       </c>
       <c r="T71" s="105" t="n">
-        <v>33634282443437.98</v>
+        <v>7049469179746.363</v>
       </c>
       <c r="U71" s="105" t="n">
-        <v>33691843186508.8</v>
+        <v>7082994830837.168</v>
       </c>
       <c r="V71" s="105" t="n">
-        <v>33760139766661.29</v>
+        <v>7116769742629.29</v>
       </c>
       <c r="W71" s="105" t="n">
-        <v>33834638286462.3</v>
+        <v>7151327161007.98</v>
       </c>
       <c r="X71" s="105" t="n">
-        <v>33915305846021.19</v>
+        <v>7186197264428.55</v>
       </c>
       <c r="Y71" s="105" t="n">
-        <v>34012847339806.16</v>
+        <v>7223505667531.414</v>
       </c>
       <c r="Z71" s="105" t="n">
-        <v>34131026487478.42</v>
+        <v>7262130487640.219</v>
       </c>
       <c r="AA71" s="105" t="n">
-        <v>34262033931770.94</v>
+        <v>7307842977726.19</v>
       </c>
       <c r="AB71" s="105" t="n">
-        <v>34421012847324.74</v>
+        <v>7356002900062.426</v>
       </c>
       <c r="AC71" s="105" t="n">
-        <v>34596592027073.5</v>
+        <v>7408253847878.006</v>
       </c>
       <c r="AD71" s="105" t="n">
-        <v>34800081440986.5</v>
+        <v>7462521795246.972</v>
       </c>
       <c r="AE71" s="105" t="n">
-        <v>35013127179859.6</v>
+        <v>7519871838221.522</v>
       </c>
       <c r="AF71" s="105" t="n">
-        <v>34950840068236.16</v>
+        <v>7550790730595.349</v>
       </c>
       <c r="AG71" s="105" t="n">
-        <v>34907594219679.86</v>
+        <v>7585507418307.312</v>
       </c>
       <c r="AH71" s="105" t="n">
-        <v>34873179863511.12</v>
+        <v>7621704159298.575</v>
       </c>
       <c r="AI71" s="105" t="n">
-        <v>34854105747260.21</v>
+        <v>7661327880499.929</v>
       </c>
       <c r="AJ71" s="105" t="n">
-        <v>34839804618554.27</v>
+        <v>7701996471682.862</v>
       </c>
       <c r="AK71" s="105" t="n">
-        <v>34832177396152.27</v>
+        <v>7745405896503.116</v>
       </c>
       <c r="AL71" s="105" t="n">
-        <v>34828988856584.13</v>
+        <v>7789002025785.658</v>
       </c>
       <c r="AM71" s="105" t="n">
-        <v>34832492126172.69</v>
+        <v>7834556064605.169</v>
       </c>
       <c r="AN71" s="105" t="n">
-        <v>34832924663920.29</v>
+        <v>7879539260580.201</v>
       </c>
       <c r="AO71" s="105" t="n">
-        <v>34833446854658.15</v>
+        <v>7925939678613.209</v>
       </c>
     </row>
     <row r="72">
@@ -55817,100 +55817,100 @@
         </is>
       </c>
       <c r="J72" s="105" t="n">
-        <v>480622355959.2045</v>
+        <v>31592140456.02805</v>
       </c>
       <c r="K72" s="105" t="n">
-        <v>483897122387.8137</v>
+        <v>31868400514.74327</v>
       </c>
       <c r="L72" s="105" t="n">
-        <v>486989577772.9589</v>
+        <v>32109455848.52684</v>
       </c>
       <c r="M72" s="105" t="n">
-        <v>489338916999.5127</v>
+        <v>32304905870.07509</v>
       </c>
       <c r="N72" s="105" t="n">
-        <v>491020713516.1518</v>
+        <v>32448012054.71221</v>
       </c>
       <c r="O72" s="105" t="n">
-        <v>492336459606.8426</v>
+        <v>32527390338.07121</v>
       </c>
       <c r="P72" s="105" t="n">
-        <v>492672609986.0844</v>
+        <v>32557933337.01809</v>
       </c>
       <c r="Q72" s="105" t="n">
-        <v>492129927885.8305</v>
+        <v>32518073662.43123</v>
       </c>
       <c r="R72" s="105" t="n">
-        <v>490584808866.9811</v>
+        <v>32383095894.46416</v>
       </c>
       <c r="S72" s="105" t="n">
-        <v>487392549217.3026</v>
+        <v>32120494215.08662</v>
       </c>
       <c r="T72" s="105" t="n">
-        <v>482400813970.243</v>
+        <v>31683187176.911</v>
       </c>
       <c r="U72" s="105" t="n">
-        <v>475686430304.5978</v>
+        <v>31098298008.91889</v>
       </c>
       <c r="V72" s="105" t="n">
-        <v>467405824195.0483</v>
+        <v>30355622282.35147</v>
       </c>
       <c r="W72" s="105" t="n">
-        <v>457814040442.2307</v>
+        <v>29478074526.23491</v>
       </c>
       <c r="X72" s="105" t="n">
-        <v>447143472994.8143</v>
+        <v>28470328292.79542</v>
       </c>
       <c r="Y72" s="105" t="n">
-        <v>435711411823.3755</v>
+        <v>27349856096.44688</v>
       </c>
       <c r="Z72" s="105" t="n">
-        <v>423882854975.8056</v>
+        <v>26127883897.10492</v>
       </c>
       <c r="AA72" s="105" t="n">
-        <v>411925953692.0413</v>
+        <v>24860660308.14213</v>
       </c>
       <c r="AB72" s="105" t="n">
-        <v>400050705962.6569</v>
+        <v>23550982420.9927</v>
       </c>
       <c r="AC72" s="105" t="n">
-        <v>388139354524.6208</v>
+        <v>22229340232.18373</v>
       </c>
       <c r="AD72" s="105" t="n">
-        <v>376289094065.915</v>
+        <v>20907638585.374</v>
       </c>
       <c r="AE72" s="105" t="n">
-        <v>364055260349.27</v>
+        <v>19612180927.46299</v>
       </c>
       <c r="AF72" s="105" t="n">
-        <v>348723267077.4051</v>
+        <v>18289527448.01584</v>
       </c>
       <c r="AG72" s="105" t="n">
-        <v>333353120828.7671</v>
+        <v>17047001474.46525</v>
       </c>
       <c r="AH72" s="105" t="n">
-        <v>317830823217.6556</v>
+        <v>15887245706.82081</v>
       </c>
       <c r="AI72" s="105" t="n">
-        <v>302372721379.9983</v>
+        <v>14828216181.67344</v>
       </c>
       <c r="AJ72" s="105" t="n">
-        <v>287098390963.5801</v>
+        <v>13873804483.77261</v>
       </c>
       <c r="AK72" s="105" t="n">
-        <v>272278541247.8315</v>
+        <v>13037941541.28344</v>
       </c>
       <c r="AL72" s="105" t="n">
-        <v>258087516832.3843</v>
+        <v>12318824239.36714</v>
       </c>
       <c r="AM72" s="105" t="n">
-        <v>244692025958.4505</v>
+        <v>11721621969.81422</v>
       </c>
       <c r="AN72" s="105" t="n">
-        <v>232107114048.1776</v>
+        <v>11236188711.22927</v>
       </c>
       <c r="AO72" s="105" t="n">
-        <v>220470169892.289</v>
+        <v>10858825014.98009</v>
       </c>
     </row>
     <row r="73">
@@ -56028,100 +56028,100 @@
         </is>
       </c>
       <c r="J74" s="105" t="n">
-        <v>3855033002205.657</v>
+        <v>552441380608.7217</v>
       </c>
       <c r="K74" s="105" t="n">
-        <v>3870692431285.042</v>
+        <v>556613882269.5312</v>
       </c>
       <c r="L74" s="105" t="n">
-        <v>3884296079792.52</v>
+        <v>560486077441.3671</v>
       </c>
       <c r="M74" s="105" t="n">
-        <v>3893592105287.977</v>
+        <v>563980395579.6899</v>
       </c>
       <c r="N74" s="105" t="n">
-        <v>3899052238954.522</v>
+        <v>567119410029.6604</v>
       </c>
       <c r="O74" s="105" t="n">
-        <v>3903445157401.88</v>
+        <v>570027720251.3669</v>
       </c>
       <c r="P74" s="105" t="n">
-        <v>3905072318377.831</v>
+        <v>573120570389.1862</v>
       </c>
       <c r="Q74" s="105" t="n">
-        <v>3906595382822.245</v>
+        <v>576297310208.9486</v>
       </c>
       <c r="R74" s="105" t="n">
-        <v>3909054808045.458</v>
+        <v>579579105321.5796</v>
       </c>
       <c r="S74" s="105" t="n">
-        <v>3911200601326.438</v>
+        <v>582905366167.6079</v>
       </c>
       <c r="T74" s="105" t="n">
-        <v>3912508075608.942</v>
+        <v>585952430972.7008</v>
       </c>
       <c r="U74" s="105" t="n">
-        <v>3913413813084.872</v>
+        <v>589299572941.3997</v>
       </c>
       <c r="V74" s="105" t="n">
-        <v>3916289666305.884</v>
+        <v>592727242915.7079</v>
       </c>
       <c r="W74" s="105" t="n">
-        <v>3920252471925.146</v>
+        <v>596340901302.6129</v>
       </c>
       <c r="X74" s="105" t="n">
-        <v>3924595643208.481</v>
+        <v>600056220843.3276</v>
       </c>
       <c r="Y74" s="105" t="n">
-        <v>3931889417841.08</v>
+        <v>604017677600.0366</v>
       </c>
       <c r="Z74" s="105" t="n">
-        <v>3942607516660.48</v>
+        <v>608127238783.5992</v>
       </c>
       <c r="AA74" s="105" t="n">
-        <v>3955877338812.424</v>
+        <v>612975398930.1096</v>
       </c>
       <c r="AB74" s="105" t="n">
-        <v>3974520578584.054</v>
+        <v>618111343227.7781</v>
       </c>
       <c r="AC74" s="105" t="n">
-        <v>3995873671968.592</v>
+        <v>623693041488.2838</v>
       </c>
       <c r="AD74" s="105" t="n">
-        <v>4020047921581.982</v>
+        <v>629340863925.1826</v>
       </c>
       <c r="AE74" s="105" t="n">
-        <v>4044224485472.311</v>
+        <v>635160040820.8884</v>
       </c>
       <c r="AF74" s="105" t="n">
-        <v>4039786199529.428</v>
+        <v>638647368293.4556</v>
       </c>
       <c r="AG74" s="105" t="n">
-        <v>4035096756956.545</v>
+        <v>642131779619.3391</v>
       </c>
       <c r="AH74" s="105" t="n">
-        <v>4028450847435.18</v>
+        <v>645231477238.2163</v>
       </c>
       <c r="AI74" s="105" t="n">
-        <v>4021256794545.08</v>
+        <v>648212923575.9424</v>
       </c>
       <c r="AJ74" s="105" t="n">
-        <v>4012945297028.467</v>
+        <v>650874843914.6348</v>
       </c>
       <c r="AK74" s="105" t="n">
-        <v>4004857743840.758</v>
+        <v>653618792336.2874</v>
       </c>
       <c r="AL74" s="105" t="n">
-        <v>3997416564185.508</v>
+        <v>656251094736.9187</v>
       </c>
       <c r="AM74" s="105" t="n">
-        <v>3991398783580.003</v>
+        <v>659107207840.9713</v>
       </c>
       <c r="AN74" s="105" t="n">
-        <v>3985522042225.387</v>
+        <v>661894101989.9244</v>
       </c>
       <c r="AO74" s="105" t="n">
-        <v>3980413660012.082</v>
+        <v>664899581585.0824</v>
       </c>
     </row>
     <row r="75">
@@ -56131,100 +56131,100 @@
         </is>
       </c>
       <c r="J75" s="93" t="n">
-        <v>22570063959.29704</v>
+        <v>3222978811.562952</v>
       </c>
       <c r="K75" s="93" t="n">
-        <v>22604280503.22984</v>
+        <v>3246009687.259837</v>
       </c>
       <c r="L75" s="93" t="n">
-        <v>22649835010.40761</v>
+        <v>3269680027.237573</v>
       </c>
       <c r="M75" s="93" t="n">
-        <v>22692460131.15878</v>
+        <v>3292927055.337833</v>
       </c>
       <c r="N75" s="93" t="n">
-        <v>22738740214.23682</v>
+        <v>3315482021.758422</v>
       </c>
       <c r="O75" s="93" t="n">
-        <v>22795038628.21255</v>
+        <v>3338295613.525415</v>
       </c>
       <c r="P75" s="93" t="n">
-        <v>22850327690.71909</v>
+        <v>3361908024.361283</v>
       </c>
       <c r="Q75" s="93" t="n">
-        <v>22901264073.85751</v>
+        <v>3384990384.635145</v>
       </c>
       <c r="R75" s="93" t="n">
-        <v>22952105287.73736</v>
+        <v>3407824604.166629</v>
       </c>
       <c r="S75" s="93" t="n">
-        <v>22999303973.72171</v>
+        <v>3430022514.765927</v>
       </c>
       <c r="T75" s="93" t="n">
-        <v>23040261446.93945</v>
+        <v>3450170757.068628</v>
       </c>
       <c r="U75" s="93" t="n">
-        <v>23076978300.58265</v>
+        <v>3470414878.225574</v>
       </c>
       <c r="V75" s="93" t="n">
-        <v>23116777218.95366</v>
+        <v>3489487961.077322</v>
       </c>
       <c r="W75" s="93" t="n">
-        <v>23153784566.54066</v>
+        <v>3507646764.133731</v>
       </c>
       <c r="X75" s="93" t="n">
-        <v>23184200533.0661</v>
+        <v>3524639776.824463</v>
       </c>
       <c r="Y75" s="93" t="n">
-        <v>23220160384.69251</v>
+        <v>3541275708.482055</v>
       </c>
       <c r="Z75" s="93" t="n">
-        <v>23259127772.14606</v>
+        <v>3557200801.481491</v>
       </c>
       <c r="AA75" s="93" t="n">
-        <v>23299496539.16866</v>
+        <v>3574308396.116937</v>
       </c>
       <c r="AB75" s="93" t="n">
-        <v>23346671638.93092</v>
+        <v>3590770122.392639</v>
       </c>
       <c r="AC75" s="93" t="n">
-        <v>23394329147.8218</v>
+        <v>3608158368.803468</v>
       </c>
       <c r="AD75" s="93" t="n">
-        <v>23449146721.99811</v>
+        <v>3624775531.431042</v>
       </c>
       <c r="AE75" s="93" t="n">
-        <v>23503800649.14286</v>
+        <v>3642047284.71743</v>
       </c>
       <c r="AF75" s="93" t="n">
-        <v>23535583340.03068</v>
+        <v>3663870435.35346</v>
       </c>
       <c r="AG75" s="93" t="n">
-        <v>23569785034.45189</v>
+        <v>3686335626.715711</v>
       </c>
       <c r="AH75" s="93" t="n">
-        <v>23599184784.39322</v>
+        <v>3707861814.89254</v>
       </c>
       <c r="AI75" s="93" t="n">
-        <v>23631269824.64017</v>
+        <v>3730084936.195559</v>
       </c>
       <c r="AJ75" s="93" t="n">
-        <v>23659043302.18174</v>
+        <v>3751431119.627968</v>
       </c>
       <c r="AK75" s="93" t="n">
-        <v>23686435852.8623</v>
+        <v>3773574534.187955</v>
       </c>
       <c r="AL75" s="93" t="n">
-        <v>23713606985.18348</v>
+        <v>3794894871.279374</v>
       </c>
       <c r="AM75" s="93" t="n">
-        <v>23744427342.65216</v>
+        <v>3817082106.389162</v>
       </c>
       <c r="AN75" s="93" t="n">
-        <v>23771770464.95282</v>
+        <v>3838495379.461608</v>
       </c>
       <c r="AO75" s="93" t="n">
-        <v>23799421935.61566</v>
+        <v>3860842768.030035</v>
       </c>
     </row>
     <row r="76">
@@ -56342,100 +56342,100 @@
         </is>
       </c>
       <c r="J77" s="105" t="n">
-        <v>5218551938791.226</v>
+        <v>664247820154.969</v>
       </c>
       <c r="K77" s="105" t="n">
-        <v>5232239670111.191</v>
+        <v>665102731208.0968</v>
       </c>
       <c r="L77" s="105" t="n">
-        <v>5247911241682.299</v>
+        <v>666788690326.6134</v>
       </c>
       <c r="M77" s="105" t="n">
-        <v>5262751149648.781</v>
+        <v>669194126320.5842</v>
       </c>
       <c r="N77" s="105" t="n">
-        <v>5277019567416.8</v>
+        <v>672205682007.9106</v>
       </c>
       <c r="O77" s="105" t="n">
-        <v>5294503878632.67</v>
+        <v>675706741138.4973</v>
       </c>
       <c r="P77" s="105" t="n">
-        <v>5312462885984.784</v>
+        <v>680189157079.8226</v>
       </c>
       <c r="Q77" s="105" t="n">
-        <v>5334790766058.071</v>
+        <v>685507305462.6399</v>
       </c>
       <c r="R77" s="105" t="n">
-        <v>5362843837016.074</v>
+        <v>691530036318.0437</v>
       </c>
       <c r="S77" s="105" t="n">
-        <v>5394268980529.718</v>
+        <v>698207882792.8732</v>
       </c>
       <c r="T77" s="105" t="n">
-        <v>5428329933400.551</v>
+        <v>705032303747.1222</v>
       </c>
       <c r="U77" s="105" t="n">
-        <v>5464832784791.215</v>
+        <v>712608841272.5629</v>
       </c>
       <c r="V77" s="105" t="n">
-        <v>5504897703641.076</v>
+        <v>720383104787.0105</v>
       </c>
       <c r="W77" s="105" t="n">
-        <v>5545014265452.01</v>
+        <v>728266940790.8278</v>
       </c>
       <c r="X77" s="105" t="n">
-        <v>5582979439794.785</v>
+        <v>735951142914.6433</v>
       </c>
       <c r="Y77" s="105" t="n">
-        <v>5620449232894.243</v>
+        <v>743424305491.0802</v>
       </c>
       <c r="Z77" s="105" t="n">
-        <v>5656607770921.783</v>
+        <v>750424946867.681</v>
       </c>
       <c r="AA77" s="105" t="n">
-        <v>5688328530851.271</v>
+        <v>757595009329.3285</v>
       </c>
       <c r="AB77" s="105" t="n">
-        <v>5720637976728.746</v>
+        <v>764378717989.2635</v>
       </c>
       <c r="AC77" s="105" t="n">
-        <v>5751381742688.375</v>
+        <v>771067633866.6978</v>
       </c>
       <c r="AD77" s="105" t="n">
-        <v>5783588667570.329</v>
+        <v>777564680702.6836</v>
       </c>
       <c r="AE77" s="105" t="n">
-        <v>5815719981005.168</v>
+        <v>784123555002.4368</v>
       </c>
       <c r="AF77" s="105" t="n">
-        <v>5803513030564.475</v>
+        <v>787516530931.2946</v>
       </c>
       <c r="AG77" s="105" t="n">
-        <v>5794010826013.354</v>
+        <v>791235390661.0864</v>
       </c>
       <c r="AH77" s="105" t="n">
-        <v>5785620422812.798</v>
+        <v>795013569647.2915</v>
       </c>
       <c r="AI77" s="105" t="n">
-        <v>5779945922887.063</v>
+        <v>799155577586.8983</v>
       </c>
       <c r="AJ77" s="105" t="n">
-        <v>5775075684661.064</v>
+        <v>803356801452.4655</v>
       </c>
       <c r="AK77" s="105" t="n">
-        <v>5771499093765.497</v>
+        <v>807861234552.5455</v>
       </c>
       <c r="AL77" s="105" t="n">
-        <v>5768845257441.034</v>
+        <v>812321258229.9967</v>
       </c>
       <c r="AM77" s="105" t="n">
-        <v>5767604793812.254</v>
+        <v>816989916605.0787</v>
       </c>
       <c r="AN77" s="105" t="n">
-        <v>5765818787302.066</v>
+        <v>821514250890.1339</v>
       </c>
       <c r="AO77" s="105" t="n">
-        <v>5764117014473.059</v>
+        <v>826174870159.2225</v>
       </c>
     </row>
     <row r="78">
@@ -56668,100 +56668,100 @@
         </is>
       </c>
       <c r="J82" s="105" t="n">
-        <v>1001501080317.151</v>
+        <v>686449870441.1471</v>
       </c>
       <c r="K82" s="105" t="n">
-        <v>974253207421.0006</v>
+        <v>671273344327.6315</v>
       </c>
       <c r="L82" s="105" t="n">
-        <v>947263465767.412</v>
+        <v>657528106413.9357</v>
       </c>
       <c r="M82" s="105" t="n">
-        <v>922876869898.2433</v>
+        <v>644120856949.1476</v>
       </c>
       <c r="N82" s="105" t="n">
-        <v>900414677916.551</v>
+        <v>631649504997.1462</v>
       </c>
       <c r="O82" s="105" t="n">
-        <v>880193399763.895</v>
+        <v>620289467698.5558</v>
       </c>
       <c r="P82" s="105" t="n">
-        <v>862469004268.8925</v>
+        <v>610579050165.7502</v>
       </c>
       <c r="Q82" s="105" t="n">
-        <v>847508324317.3833</v>
+        <v>601969734083.8322</v>
       </c>
       <c r="R82" s="105" t="n">
-        <v>834479249726.3124</v>
+        <v>595250923790.2103</v>
       </c>
       <c r="S82" s="105" t="n">
-        <v>824927129503.4882</v>
+        <v>589631045928.1083</v>
       </c>
       <c r="T82" s="105" t="n">
-        <v>817702889636.8282</v>
+        <v>585703609475.9683</v>
       </c>
       <c r="U82" s="105" t="n">
-        <v>812399544951.2328</v>
+        <v>582885096825.7482</v>
       </c>
       <c r="V82" s="105" t="n">
-        <v>808637527816.8579</v>
+        <v>581081651705.1719</v>
       </c>
       <c r="W82" s="105" t="n">
-        <v>806030000996.4386</v>
+        <v>580090566793.6102</v>
       </c>
       <c r="X82" s="105" t="n">
-        <v>804245541066.36</v>
+        <v>579707175836.4459</v>
       </c>
       <c r="Y82" s="105" t="n">
-        <v>803031202004.9097</v>
+        <v>580117730269.8585</v>
       </c>
       <c r="Z82" s="105" t="n">
-        <v>802230631726.8979</v>
+        <v>580551705453.222</v>
       </c>
       <c r="AA82" s="105" t="n">
-        <v>801748492856.2605</v>
+        <v>581652208036.3578</v>
       </c>
       <c r="AB82" s="105" t="n">
-        <v>801522132471.915</v>
+        <v>582699222824.5106</v>
       </c>
       <c r="AC82" s="105" t="n">
-        <v>801498528685.5092</v>
+        <v>584324864377.3403</v>
       </c>
       <c r="AD82" s="105" t="n">
-        <v>801639315073.3129</v>
+        <v>585825730926.0316</v>
       </c>
       <c r="AE82" s="105" t="n">
-        <v>801912522790.4279</v>
+        <v>587842666123.5519</v>
       </c>
       <c r="AF82" s="105" t="n">
-        <v>802361524639.306</v>
+        <v>589667947277.646</v>
       </c>
       <c r="AG82" s="105" t="n">
-        <v>802914353706.0482</v>
+        <v>591983436618.114</v>
       </c>
       <c r="AH82" s="105" t="n">
-        <v>803555382777.6488</v>
+        <v>594438351983.9252</v>
       </c>
       <c r="AI82" s="105" t="n">
-        <v>804273934992.3524</v>
+        <v>596682121344.7303</v>
       </c>
       <c r="AJ82" s="105" t="n">
-        <v>805059989225.0736</v>
+        <v>599365948533.7594</v>
       </c>
       <c r="AK82" s="105" t="n">
-        <v>805902710086.8892</v>
+        <v>602136392751.6544</v>
       </c>
       <c r="AL82" s="105" t="n">
-        <v>806790844951.2338</v>
+        <v>604644077550.4066</v>
       </c>
       <c r="AM82" s="105" t="n">
-        <v>807713791168.535</v>
+        <v>607536063489.6116</v>
       </c>
       <c r="AN82" s="105" t="n">
-        <v>808660177142.1658</v>
+        <v>610454866207.3224</v>
       </c>
       <c r="AO82" s="105" t="n">
-        <v>809622111162.8267</v>
+        <v>613054212830.6311</v>
       </c>
     </row>
     <row r="83">
@@ -56879,100 +56879,100 @@
         </is>
       </c>
       <c r="J84" s="105" t="n">
-        <v>8642898953.964993</v>
+        <v>11592352188.10835</v>
       </c>
       <c r="K84" s="105" t="n">
-        <v>8525914584.051581</v>
+        <v>11491457797.69958</v>
       </c>
       <c r="L84" s="105" t="n">
-        <v>8403448394.662908</v>
+        <v>11411908064.74797</v>
       </c>
       <c r="M84" s="105" t="n">
-        <v>8295614874.268023</v>
+        <v>11335750987.20695</v>
       </c>
       <c r="N84" s="105" t="n">
-        <v>8194797341.756166</v>
+        <v>11271913222.68154</v>
       </c>
       <c r="O84" s="105" t="n">
-        <v>8099758108.286743</v>
+        <v>11217466092.20381</v>
       </c>
       <c r="P84" s="105" t="n">
-        <v>8009699872.598784</v>
+        <v>11176648198.69769</v>
       </c>
       <c r="Q84" s="105" t="n">
-        <v>7925216605.42399</v>
+        <v>11136260708.03402</v>
       </c>
       <c r="R84" s="105" t="n">
-        <v>7838102306.081935</v>
+        <v>11108428898.63475</v>
       </c>
       <c r="S84" s="105" t="n">
-        <v>7765902997.802503</v>
+        <v>11079564330.85201</v>
       </c>
       <c r="T84" s="105" t="n">
-        <v>7703507138.719082</v>
+        <v>11067521871.57882</v>
       </c>
       <c r="U84" s="105" t="n">
-        <v>7652349801.774307</v>
+        <v>11069984244.92365</v>
       </c>
       <c r="V84" s="105" t="n">
-        <v>7608310440.654801</v>
+        <v>11081677470.72219</v>
       </c>
       <c r="W84" s="105" t="n">
-        <v>7568131571.062632</v>
+        <v>11094581353.98023</v>
       </c>
       <c r="X84" s="105" t="n">
-        <v>7534700947.08611</v>
+        <v>11112164567.14462</v>
       </c>
       <c r="Y84" s="105" t="n">
-        <v>7510151323.394237</v>
+        <v>11148404504.12396</v>
       </c>
       <c r="Z84" s="105" t="n">
-        <v>7492747608.280794</v>
+        <v>11189840132.53287</v>
       </c>
       <c r="AA84" s="105" t="n">
-        <v>7479922243.17045</v>
+        <v>11244954105.76223</v>
       </c>
       <c r="AB84" s="105" t="n">
-        <v>7470824268.75232</v>
+        <v>11297485463.53601</v>
       </c>
       <c r="AC84" s="105" t="n">
-        <v>7466198885.902033</v>
+        <v>11363011534.98373</v>
       </c>
       <c r="AD84" s="105" t="n">
-        <v>7465186504.679692</v>
+        <v>11428756164.9751</v>
       </c>
       <c r="AE84" s="105" t="n">
-        <v>7467999513.712968</v>
+        <v>11508874830.98544</v>
       </c>
       <c r="AF84" s="105" t="n">
-        <v>7481851880.433249</v>
+        <v>11593840057.5714</v>
       </c>
       <c r="AG84" s="105" t="n">
-        <v>7526121705.433948</v>
+        <v>11702793040.66773</v>
       </c>
       <c r="AH84" s="105" t="n">
-        <v>7574487861.840458</v>
+        <v>11819125491.06409</v>
       </c>
       <c r="AI84" s="105" t="n">
-        <v>7625946311.176995</v>
+        <v>11936529145.47211</v>
       </c>
       <c r="AJ84" s="105" t="n">
-        <v>7679623500.237739</v>
+        <v>12067039145.37413</v>
       </c>
       <c r="AK84" s="105" t="n">
-        <v>7734291598.472064</v>
+        <v>12201050736.17662</v>
       </c>
       <c r="AL84" s="105" t="n">
-        <v>7788617392.531227</v>
+        <v>12328560671.92369</v>
       </c>
       <c r="AM84" s="105" t="n">
-        <v>7841068614.097433</v>
+        <v>12459587477.08772</v>
       </c>
       <c r="AN84" s="105" t="n">
-        <v>7891370193.912071</v>
+        <v>12586295387.2891</v>
       </c>
       <c r="AO84" s="105" t="n">
-        <v>7939787686.636975</v>
+        <v>12702972810.35795</v>
       </c>
     </row>
     <row r="85">
@@ -57818,100 +57818,100 @@
         </is>
       </c>
       <c r="J95" s="105" t="n">
-        <v>1273200734550.074</v>
+        <v>437085262565.6405</v>
       </c>
       <c r="K95" s="105" t="n">
-        <v>1237101692633.251</v>
+        <v>430121999611.2747</v>
       </c>
       <c r="L95" s="105" t="n">
-        <v>1222253910350.537</v>
+        <v>430207688375.8145</v>
       </c>
       <c r="M95" s="105" t="n">
-        <v>1213060301461.047</v>
+        <v>432420546087.2093</v>
       </c>
       <c r="N95" s="105" t="n">
-        <v>1204155737633.825</v>
+        <v>434958332285.3904</v>
       </c>
       <c r="O95" s="105" t="n">
-        <v>1196665371676.179</v>
+        <v>437766200823.3459</v>
       </c>
       <c r="P95" s="105" t="n">
-        <v>1192474183701.838</v>
+        <v>442015931356.6525</v>
       </c>
       <c r="Q95" s="105" t="n">
-        <v>1192026764985.715</v>
+        <v>447386470340.5485</v>
       </c>
       <c r="R95" s="105" t="n">
-        <v>1192832486568.2</v>
+        <v>453471674765.4311</v>
       </c>
       <c r="S95" s="105" t="n">
-        <v>1193709528256.047</v>
+        <v>459380907096.6552</v>
       </c>
       <c r="T95" s="105" t="n">
-        <v>1194726125226.912</v>
+        <v>465454722093.0651</v>
       </c>
       <c r="U95" s="105" t="n">
-        <v>1196524032820.121</v>
+        <v>471766462618.3232</v>
       </c>
       <c r="V95" s="105" t="n">
-        <v>1200059160810.765</v>
+        <v>478841799844.8078</v>
       </c>
       <c r="W95" s="105" t="n">
-        <v>1205191897327.975</v>
+        <v>486465219476.3414</v>
       </c>
       <c r="X95" s="105" t="n">
-        <v>1211391155831.032</v>
+        <v>494633763992.0657</v>
       </c>
       <c r="Y95" s="105" t="n">
-        <v>1218232587865.406</v>
+        <v>502868398240.2324</v>
       </c>
       <c r="Z95" s="105" t="n">
-        <v>1224393255028.76</v>
+        <v>511060409489.6498</v>
       </c>
       <c r="AA95" s="105" t="n">
-        <v>1228358613362.725</v>
+        <v>517453869291.1699</v>
       </c>
       <c r="AB95" s="105" t="n">
-        <v>1231672217958.962</v>
+        <v>523762620153.9241</v>
       </c>
       <c r="AC95" s="105" t="n">
-        <v>1234585719586.848</v>
+        <v>530029405768.8176</v>
       </c>
       <c r="AD95" s="105" t="n">
-        <v>1237228852722.464</v>
+        <v>536272670274.9341</v>
       </c>
       <c r="AE95" s="105" t="n">
-        <v>1239669435540.864</v>
+        <v>542504360085.779</v>
       </c>
       <c r="AF95" s="105" t="n">
-        <v>1237039437122.192</v>
+        <v>548463383123.0146</v>
       </c>
       <c r="AG95" s="105" t="n">
-        <v>1234685109791.92</v>
+        <v>554631276537.7646</v>
       </c>
       <c r="AH95" s="105" t="n">
-        <v>1232723074900.905</v>
+        <v>561054811491.7013</v>
       </c>
       <c r="AI95" s="105" t="n">
-        <v>1231238298329.374</v>
+        <v>567771490904.7906</v>
       </c>
       <c r="AJ95" s="105" t="n">
-        <v>1230217529792.185</v>
+        <v>574774922346.0502</v>
       </c>
       <c r="AK95" s="105" t="n">
-        <v>1229610743633.518</v>
+        <v>582044730998.7159</v>
       </c>
       <c r="AL95" s="105" t="n">
-        <v>1229337801924.188</v>
+        <v>589547315438.2885</v>
       </c>
       <c r="AM95" s="105" t="n">
-        <v>1229317405263.654</v>
+        <v>597246111060.5144</v>
       </c>
       <c r="AN95" s="105" t="n">
-        <v>1229499305996.9</v>
+        <v>605120284679.6804</v>
       </c>
       <c r="AO95" s="105" t="n">
-        <v>1229859266045.264</v>
+        <v>613162417154.7594</v>
       </c>
     </row>
     <row r="96">
@@ -58993,100 +58993,100 @@
         </is>
       </c>
       <c r="J108" s="105" t="n">
-        <v>4382631566342.97</v>
+        <v>1368496849276.939</v>
       </c>
       <c r="K108" s="105" t="n">
-        <v>4350129902424.962</v>
+        <v>1366191890738.975</v>
       </c>
       <c r="L108" s="105" t="n">
-        <v>4317997668814.297</v>
+        <v>1363911692644.642</v>
       </c>
       <c r="M108" s="105" t="n">
-        <v>4285438969162.537</v>
+        <v>1361504193303.63</v>
       </c>
       <c r="N108" s="105" t="n">
-        <v>4253590224282.449</v>
+        <v>1359294292367.715</v>
       </c>
       <c r="O108" s="105" t="n">
-        <v>4223544319113.199</v>
+        <v>1357628239681.115</v>
       </c>
       <c r="P108" s="105" t="n">
-        <v>4196471099399.707</v>
+        <v>1356733080990.123</v>
       </c>
       <c r="Q108" s="105" t="n">
-        <v>4173750299942.368</v>
+        <v>1356951236911.498</v>
       </c>
       <c r="R108" s="105" t="n">
-        <v>4155498999362.332</v>
+        <v>1358326450234.251</v>
       </c>
       <c r="S108" s="105" t="n">
-        <v>4141362182336.079</v>
+        <v>1360894476995.477</v>
       </c>
       <c r="T108" s="105" t="n">
-        <v>4130782065853.824</v>
+        <v>1364506974041.985</v>
       </c>
       <c r="U108" s="105" t="n">
-        <v>4124706642617.982</v>
+        <v>1369416418698.629</v>
       </c>
       <c r="V108" s="105" t="n">
-        <v>4123823210132.493</v>
+        <v>1375889858973.58</v>
       </c>
       <c r="W108" s="105" t="n">
-        <v>4127046038951.06</v>
+        <v>1383620991411.343</v>
       </c>
       <c r="X108" s="105" t="n">
-        <v>4133666519644.975</v>
+        <v>1392388259673.969</v>
       </c>
       <c r="Y108" s="105" t="n">
-        <v>4144213360841.655</v>
+        <v>1402385993619.583</v>
       </c>
       <c r="Z108" s="105" t="n">
-        <v>4158294846441.032</v>
+        <v>1413568176254.748</v>
       </c>
       <c r="AA108" s="105" t="n">
-        <v>4175179784209.921</v>
+        <v>1425786150530.128</v>
       </c>
       <c r="AB108" s="105" t="n">
-        <v>4193756578728.397</v>
+        <v>1438591840239.814</v>
       </c>
       <c r="AC108" s="105" t="n">
-        <v>4213638952107.925</v>
+        <v>1451763166117.518</v>
       </c>
       <c r="AD108" s="105" t="n">
-        <v>4234466883192.303</v>
+        <v>1465155767233.6</v>
       </c>
       <c r="AE108" s="105" t="n">
-        <v>4255992107894.251</v>
+        <v>1478699200070.267</v>
       </c>
       <c r="AF108" s="105" t="n">
-        <v>4260018358074.197</v>
+        <v>1490655124444.164</v>
       </c>
       <c r="AG108" s="105" t="n">
-        <v>4264460420741.137</v>
+        <v>1502821545524.241</v>
       </c>
       <c r="AH108" s="105" t="n">
-        <v>4269287275368.05</v>
+        <v>1515191740161.092</v>
       </c>
       <c r="AI108" s="105" t="n">
-        <v>4274474710797.224</v>
+        <v>1527761725765.17</v>
       </c>
       <c r="AJ108" s="105" t="n">
-        <v>4279991006582.596</v>
+        <v>1540525032433.139</v>
       </c>
       <c r="AK108" s="105" t="n">
-        <v>4285798211707.307</v>
+        <v>1553472883728.431</v>
       </c>
       <c r="AL108" s="105" t="n">
-        <v>4291832733005.715</v>
+        <v>1566586874323.091</v>
       </c>
       <c r="AM108" s="105" t="n">
-        <v>4298046182406.895</v>
+        <v>1579853546478.229</v>
       </c>
       <c r="AN108" s="105" t="n">
-        <v>4304402014761.382</v>
+        <v>1593263235911.738</v>
       </c>
       <c r="AO108" s="105" t="n">
-        <v>4310870532984.443</v>
+        <v>1606808249813.112</v>
       </c>
     </row>
     <row r="109">
@@ -59214,100 +59214,100 @@
         </is>
       </c>
       <c r="J110" s="105" t="n">
-        <v>925035964969.8986</v>
+        <v>375818817070.7062</v>
       </c>
       <c r="K110" s="105" t="n">
-        <v>927509493155.9171</v>
+        <v>378679198556.1484</v>
       </c>
       <c r="L110" s="105" t="n">
-        <v>930036911382.61</v>
+        <v>381564004176.8763</v>
       </c>
       <c r="M110" s="105" t="n">
-        <v>932354320781.8252</v>
+        <v>384395588142.8282</v>
       </c>
       <c r="N110" s="105" t="n">
-        <v>934630079845.2689</v>
+        <v>387242027891.6516</v>
       </c>
       <c r="O110" s="105" t="n">
-        <v>936997221345.1906</v>
+        <v>390169514079.1567</v>
       </c>
       <c r="P110" s="105" t="n">
-        <v>939563512359.8508</v>
+        <v>393193065477.326</v>
       </c>
       <c r="Q110" s="105" t="n">
-        <v>942489287120.3718</v>
+        <v>396351210891.7047</v>
       </c>
       <c r="R110" s="105" t="n">
-        <v>945710672621.4606</v>
+        <v>399604670326.4622</v>
       </c>
       <c r="S110" s="105" t="n">
-        <v>949172682926.7654</v>
+        <v>402944404266.1742</v>
       </c>
       <c r="T110" s="105" t="n">
-        <v>952867353202.2616</v>
+        <v>406351938018.58</v>
       </c>
       <c r="U110" s="105" t="n">
-        <v>957166341206.9965</v>
+        <v>409967017785.3664</v>
       </c>
       <c r="V110" s="105" t="n">
-        <v>962146374873.1631</v>
+        <v>413849478261.2637</v>
       </c>
       <c r="W110" s="105" t="n">
-        <v>967528565095.8658</v>
+        <v>417902775407.6396</v>
       </c>
       <c r="X110" s="105" t="n">
-        <v>973090307774.1847</v>
+        <v>422032648197.1563</v>
       </c>
       <c r="Y110" s="105" t="n">
-        <v>978929241815.3463</v>
+        <v>426280224118.9603</v>
       </c>
       <c r="Z110" s="105" t="n">
-        <v>985017530212.179</v>
+        <v>430655706619.7328</v>
       </c>
       <c r="AA110" s="105" t="n">
-        <v>991299577145.2792</v>
+        <v>435159904462.3172</v>
       </c>
       <c r="AB110" s="105" t="n">
-        <v>997620679817.0072</v>
+        <v>439702599271.3152</v>
       </c>
       <c r="AC110" s="105" t="n">
-        <v>1003967729074.523</v>
+        <v>444249377694.8239</v>
       </c>
       <c r="AD110" s="105" t="n">
-        <v>1010294953939.366</v>
+        <v>448771938306.9614</v>
       </c>
       <c r="AE110" s="105" t="n">
-        <v>1016568285633.199</v>
+        <v>453257849452.0827</v>
       </c>
       <c r="AF110" s="105" t="n">
-        <v>1018698340894.027</v>
+        <v>457415645325.4434</v>
       </c>
       <c r="AG110" s="105" t="n">
-        <v>1020733684698.638</v>
+        <v>461562314542.6521</v>
       </c>
       <c r="AH110" s="105" t="n">
-        <v>1022684213419.463</v>
+        <v>465701730258.1392</v>
       </c>
       <c r="AI110" s="105" t="n">
-        <v>1024561988073.395</v>
+        <v>469838877368.4545</v>
       </c>
       <c r="AJ110" s="105" t="n">
-        <v>1026378542306.049</v>
+        <v>473978646534.8477</v>
       </c>
       <c r="AK110" s="105" t="n">
-        <v>1028145334474.132</v>
+        <v>478126037814.5193</v>
       </c>
       <c r="AL110" s="105" t="n">
-        <v>1029868494977.928</v>
+        <v>482283701711.6046</v>
       </c>
       <c r="AM110" s="105" t="n">
-        <v>1031557289264.462</v>
+        <v>486455845097.425</v>
       </c>
       <c r="AN110" s="105" t="n">
-        <v>1033221596623.621</v>
+        <v>490647086550.9625</v>
       </c>
       <c r="AO110" s="105" t="n">
-        <v>1034869511622.663</v>
+        <v>494861321447.2831</v>
       </c>
     </row>
     <row r="111">
@@ -59847,100 +59847,100 @@
         </is>
       </c>
       <c r="J116" s="105" t="n">
-        <v>184941896051.2708</v>
+        <v>69415722680.66805</v>
       </c>
       <c r="K116" s="105" t="n">
-        <v>185153393011.8404</v>
+        <v>69735314014.43089</v>
       </c>
       <c r="L116" s="105" t="n">
-        <v>185404100889.3121</v>
+        <v>70079189387.3764</v>
       </c>
       <c r="M116" s="105" t="n">
-        <v>185640397977.9286</v>
+        <v>70427923359.03319</v>
       </c>
       <c r="N116" s="105" t="n">
-        <v>185888024552.0704</v>
+        <v>70793224510.51482</v>
       </c>
       <c r="O116" s="105" t="n">
-        <v>186167855563.7714</v>
+        <v>71186874694.79863</v>
       </c>
       <c r="P116" s="105" t="n">
-        <v>186464799199.9917</v>
+        <v>71600238659.49883</v>
       </c>
       <c r="Q116" s="105" t="n">
-        <v>186783884759.5318</v>
+        <v>72023259698.86461</v>
       </c>
       <c r="R116" s="105" t="n">
-        <v>187112025760.3594</v>
+        <v>72446380299.09354</v>
       </c>
       <c r="S116" s="105" t="n">
-        <v>187453967464.609</v>
+        <v>72872467125.25758</v>
       </c>
       <c r="T116" s="105" t="n">
-        <v>187810474070.1102</v>
+        <v>73300322519.71097</v>
       </c>
       <c r="U116" s="105" t="n">
-        <v>188260454668.1645</v>
+        <v>73756355419.88055</v>
       </c>
       <c r="V116" s="105" t="n">
-        <v>188812904578.2993</v>
+        <v>74250108483.92894</v>
       </c>
       <c r="W116" s="105" t="n">
-        <v>189414039394.3279</v>
+        <v>74765196562.76996</v>
       </c>
       <c r="X116" s="105" t="n">
-        <v>190018331971.3603</v>
+        <v>75286901167.85179</v>
       </c>
       <c r="Y116" s="105" t="n">
-        <v>190642406129.5644</v>
+        <v>75817403403.22758</v>
       </c>
       <c r="Z116" s="105" t="n">
-        <v>191282836978.9874</v>
+        <v>76359133915.21606</v>
       </c>
       <c r="AA116" s="105" t="n">
-        <v>191945838630.2163</v>
+        <v>76916880607.74033</v>
       </c>
       <c r="AB116" s="105" t="n">
-        <v>192609787392.686</v>
+        <v>77480878139.60486</v>
       </c>
       <c r="AC116" s="105" t="n">
-        <v>193282940201.8516</v>
+        <v>78048908731.10168</v>
       </c>
       <c r="AD116" s="105" t="n">
-        <v>193962184043.0502</v>
+        <v>78618649355.26102</v>
       </c>
       <c r="AE116" s="105" t="n">
-        <v>194646501776.8632</v>
+        <v>79190489293.07327</v>
       </c>
       <c r="AF116" s="105" t="n">
-        <v>195054355097.6216</v>
+        <v>79916915548.95987</v>
       </c>
       <c r="AG116" s="105" t="n">
-        <v>195444070825.4881</v>
+        <v>80641396736.23738</v>
       </c>
       <c r="AH116" s="105" t="n">
-        <v>195817546571.3661</v>
+        <v>81364610600.51598</v>
       </c>
       <c r="AI116" s="105" t="n">
-        <v>196177091796.4935</v>
+        <v>82087428107.42421</v>
       </c>
       <c r="AJ116" s="105" t="n">
-        <v>196524914896.1213</v>
+        <v>82810703724.22929</v>
       </c>
       <c r="AK116" s="105" t="n">
-        <v>196863209848.87</v>
+        <v>83535311030.90904</v>
       </c>
       <c r="AL116" s="105" t="n">
-        <v>197193150467.6597</v>
+        <v>84261713107.63446</v>
       </c>
       <c r="AM116" s="105" t="n">
-        <v>197516510845.6859</v>
+        <v>84990644953.70821</v>
       </c>
       <c r="AN116" s="105" t="n">
-        <v>197835182611.1583</v>
+        <v>85722913499.52359</v>
       </c>
       <c r="AO116" s="105" t="n">
-        <v>198150715664.1147</v>
+        <v>86459199321.62727</v>
       </c>
     </row>
     <row r="117">
@@ -60178,100 +60178,100 @@
         </is>
       </c>
       <c r="J121" s="105" t="n">
-        <v>9818716908490.176</v>
+        <v>2744479568314.812</v>
       </c>
       <c r="K121" s="105" t="n">
-        <v>9893490591859.271</v>
+        <v>2743158678376.468</v>
       </c>
       <c r="L121" s="105" t="n">
-        <v>9963732389200.424</v>
+        <v>2739739488435.895</v>
       </c>
       <c r="M121" s="105" t="n">
-        <v>10044413286950.64</v>
+        <v>2741629108131.898</v>
       </c>
       <c r="N121" s="105" t="n">
-        <v>10128345509786.85</v>
+        <v>2744198912826.04</v>
       </c>
       <c r="O121" s="105" t="n">
-        <v>10221406558629.6</v>
+        <v>2748388376050.799</v>
       </c>
       <c r="P121" s="105" t="n">
-        <v>10320441454117.27</v>
+        <v>2750960263209.536</v>
       </c>
       <c r="Q121" s="105" t="n">
-        <v>10413941548504.56</v>
+        <v>2751190896163.362</v>
       </c>
       <c r="R121" s="105" t="n">
-        <v>10510604307952.29</v>
+        <v>2752026897236.308</v>
       </c>
       <c r="S121" s="105" t="n">
-        <v>10616553724721.4</v>
+        <v>2753302623723.758</v>
       </c>
       <c r="T121" s="105" t="n">
-        <v>10715733825018.74</v>
+        <v>2752461459874.007</v>
       </c>
       <c r="U121" s="105" t="n">
-        <v>10810328445263.39</v>
+        <v>2748385664508.357</v>
       </c>
       <c r="V121" s="105" t="n">
-        <v>10902208778626.4</v>
+        <v>2741888505127.935</v>
       </c>
       <c r="W121" s="105" t="n">
-        <v>10990483901646.61</v>
+        <v>2731683213844.47</v>
       </c>
       <c r="X121" s="105" t="n">
-        <v>11088708093154.41</v>
+        <v>2721629920784.052</v>
       </c>
       <c r="Y121" s="105" t="n">
-        <v>11201724784468.82</v>
+        <v>2713997557891.62</v>
       </c>
       <c r="Z121" s="105" t="n">
-        <v>11326045423175.4</v>
+        <v>2707089003292.11</v>
       </c>
       <c r="AA121" s="105" t="n">
-        <v>11450749660599.38</v>
+        <v>2698695911744.883</v>
       </c>
       <c r="AB121" s="105" t="n">
-        <v>11571493635844.43</v>
+        <v>2686744669130.086</v>
       </c>
       <c r="AC121" s="105" t="n">
-        <v>11695779963395.6</v>
+        <v>2672026980763.354</v>
       </c>
       <c r="AD121" s="105" t="n">
-        <v>11814273538580.08</v>
+        <v>2651897465839.646</v>
       </c>
       <c r="AE121" s="105" t="n">
-        <v>11925232040926.49</v>
+        <v>2624426200296.116</v>
       </c>
       <c r="AF121" s="105" t="n">
-        <v>12011367451673.45</v>
+        <v>2581677605718.456</v>
       </c>
       <c r="AG121" s="105" t="n">
-        <v>12098283784317.37</v>
+        <v>2532760382242.476</v>
       </c>
       <c r="AH121" s="105" t="n">
-        <v>12188575717052.16</v>
+        <v>2479447922009.006</v>
       </c>
       <c r="AI121" s="105" t="n">
-        <v>12278475679147.63</v>
+        <v>2421920553436.514</v>
       </c>
       <c r="AJ121" s="105" t="n">
-        <v>12367245774895.68</v>
+        <v>2358565559543.031</v>
       </c>
       <c r="AK121" s="105" t="n">
-        <v>12444879018578.38</v>
+        <v>2287491585245.392</v>
       </c>
       <c r="AL121" s="105" t="n">
-        <v>12510391160391.83</v>
+        <v>2206969534160.08</v>
       </c>
       <c r="AM121" s="105" t="n">
-        <v>12572511164137.52</v>
+        <v>2117023549860.983</v>
       </c>
       <c r="AN121" s="105" t="n">
-        <v>12638479918807.08</v>
+        <v>2019763841444.732</v>
       </c>
       <c r="AO121" s="105" t="n">
-        <v>12709674125199.91</v>
+        <v>1916197258850.369</v>
       </c>
     </row>
     <row r="122">
@@ -61355,100 +61355,100 @@
         </is>
       </c>
       <c r="J134" s="105" t="n">
-        <v>3413817928157.724</v>
+        <v>461860657732.4767</v>
       </c>
       <c r="K134" s="105" t="n">
-        <v>3417769165341.41</v>
+        <v>470719690230.2103</v>
       </c>
       <c r="L134" s="105" t="n">
-        <v>3421348018785.47</v>
+        <v>479316000846.955</v>
       </c>
       <c r="M134" s="105" t="n">
-        <v>3423323536611.231</v>
+        <v>487657702574.5629</v>
       </c>
       <c r="N134" s="105" t="n">
-        <v>3424134349245.125</v>
+        <v>495662105071.9612</v>
       </c>
       <c r="O134" s="105" t="n">
-        <v>3423981561915.497</v>
+        <v>503398042693.8085</v>
       </c>
       <c r="P134" s="105" t="n">
-        <v>3423230099041.154</v>
+        <v>510806455119.1043</v>
       </c>
       <c r="Q134" s="105" t="n">
-        <v>3423094742769.735</v>
+        <v>517982813493.2017</v>
       </c>
       <c r="R134" s="105" t="n">
-        <v>3423244778080.95</v>
+        <v>524904330927.8252</v>
       </c>
       <c r="S134" s="105" t="n">
-        <v>3424226295001.531</v>
+        <v>531553837976.8708</v>
       </c>
       <c r="T134" s="105" t="n">
-        <v>3425649227329.326</v>
+        <v>537939857955.9185</v>
       </c>
       <c r="U134" s="105" t="n">
-        <v>3427408174258.681</v>
+        <v>543836825083.1544</v>
       </c>
       <c r="V134" s="105" t="n">
-        <v>3429509175918.236</v>
+        <v>549238889710.3718</v>
       </c>
       <c r="W134" s="105" t="n">
-        <v>3431043127540.245</v>
+        <v>554019724093.0209</v>
       </c>
       <c r="X134" s="105" t="n">
-        <v>3431564279384.918</v>
+        <v>558266009224.132</v>
       </c>
       <c r="Y134" s="105" t="n">
-        <v>3430940220780.758</v>
+        <v>562012728312.2068</v>
       </c>
       <c r="Z134" s="105" t="n">
-        <v>3429032283633.605</v>
+        <v>565159619311.4482</v>
       </c>
       <c r="AA134" s="105" t="n">
-        <v>3425719095152.506</v>
+        <v>567927525753.6282</v>
       </c>
       <c r="AB134" s="105" t="n">
-        <v>3420561953497.052</v>
+        <v>570284194150.8582</v>
       </c>
       <c r="AC134" s="105" t="n">
-        <v>3414799883905.224</v>
+        <v>572412377367.8511</v>
       </c>
       <c r="AD134" s="105" t="n">
-        <v>3407580541204.917</v>
+        <v>574267885567.3796</v>
       </c>
       <c r="AE134" s="105" t="n">
-        <v>3399910208758.68</v>
+        <v>576026877000.1747</v>
       </c>
       <c r="AF134" s="105" t="n">
-        <v>3392588144096.456</v>
+        <v>577658174933.1331</v>
       </c>
       <c r="AG134" s="105" t="n">
-        <v>3385198413566.272</v>
+        <v>579282469859.5496</v>
       </c>
       <c r="AH134" s="105" t="n">
-        <v>3378458289057.346</v>
+        <v>580809807067.588</v>
       </c>
       <c r="AI134" s="105" t="n">
-        <v>3372273868548.193</v>
+        <v>582373405710.3214</v>
       </c>
       <c r="AJ134" s="105" t="n">
-        <v>3366720124871.216</v>
+        <v>583912869170.9858</v>
       </c>
       <c r="AK134" s="105" t="n">
-        <v>3361654715598.818</v>
+        <v>585395500733.1967</v>
       </c>
       <c r="AL134" s="105" t="n">
-        <v>3357032042814.874</v>
+        <v>586852699717.1881</v>
       </c>
       <c r="AM134" s="105" t="n">
-        <v>3352811286507.02</v>
+        <v>588218408532.5267</v>
       </c>
       <c r="AN134" s="105" t="n">
-        <v>3348833030577.344</v>
+        <v>589608200029.5664</v>
       </c>
       <c r="AO134" s="105" t="n">
-        <v>3344947333326.74</v>
+        <v>590965607236.2209</v>
       </c>
     </row>
     <row r="135">
@@ -61566,100 +61566,100 @@
         </is>
       </c>
       <c r="J136" s="105" t="n">
-        <v>39256393227418.19</v>
+        <v>7923314740760.893</v>
       </c>
       <c r="K136" s="105" t="n">
-        <v>39201995610222.41</v>
+        <v>7930659383676.282</v>
       </c>
       <c r="L136" s="105" t="n">
-        <v>39149281379799.24</v>
+        <v>7934853356614.571</v>
       </c>
       <c r="M136" s="105" t="n">
-        <v>39082965782065.2</v>
+        <v>7936469443087.067</v>
       </c>
       <c r="N136" s="105" t="n">
-        <v>39005976684039.58</v>
+        <v>7934491623948.449</v>
       </c>
       <c r="O136" s="105" t="n">
-        <v>38918683226410.79</v>
+        <v>7930425942931.374</v>
       </c>
       <c r="P136" s="105" t="n">
-        <v>38823393440651.4</v>
+        <v>7924114272624.525</v>
       </c>
       <c r="Q136" s="105" t="n">
-        <v>38732509669724.15</v>
+        <v>7918122924079.535</v>
       </c>
       <c r="R136" s="105" t="n">
-        <v>38642189276623.28</v>
+        <v>7913459557278.224</v>
       </c>
       <c r="S136" s="105" t="n">
-        <v>38559648600440.15</v>
+        <v>7911485413098.182</v>
       </c>
       <c r="T136" s="105" t="n">
-        <v>38482856359924.74</v>
+        <v>7914121525010.447</v>
       </c>
       <c r="U136" s="105" t="n">
-        <v>38414722532204.78</v>
+        <v>7919822116278.54</v>
       </c>
       <c r="V136" s="105" t="n">
-        <v>38357281141690.6</v>
+        <v>7929452694238.816</v>
       </c>
       <c r="W136" s="105" t="n">
-        <v>38305948047189.8</v>
+        <v>7942144610737.188</v>
       </c>
       <c r="X136" s="105" t="n">
-        <v>38261004439137.13</v>
+        <v>7959470214176.085</v>
       </c>
       <c r="Y136" s="105" t="n">
-        <v>38225210906385.95</v>
+        <v>7981370846525.212</v>
       </c>
       <c r="Z136" s="105" t="n">
-        <v>38199091404272.9</v>
+        <v>8005106027007.17</v>
       </c>
       <c r="AA136" s="105" t="n">
-        <v>38180859147435.8</v>
+        <v>8032122396806.668</v>
       </c>
       <c r="AB136" s="105" t="n">
-        <v>38163889135345.5</v>
+        <v>8060020092633.968</v>
       </c>
       <c r="AC136" s="105" t="n">
-        <v>38159667489416.87</v>
+        <v>8089653556750.049</v>
       </c>
       <c r="AD136" s="105" t="n">
-        <v>38154860309085.17</v>
+        <v>8118899357337.251</v>
       </c>
       <c r="AE136" s="105" t="n">
-        <v>38157365045941.45</v>
+        <v>8149189169889.393</v>
       </c>
       <c r="AF136" s="105" t="n">
-        <v>38166223053676.62</v>
+        <v>8178970938170.936</v>
       </c>
       <c r="AG136" s="105" t="n">
-        <v>38173112737478.29</v>
+        <v>8209382552643.46</v>
       </c>
       <c r="AH136" s="105" t="n">
-        <v>38183754833687.17</v>
+        <v>8238599247053.758</v>
       </c>
       <c r="AI136" s="105" t="n">
-        <v>38194983395838.2</v>
+        <v>8268351282476.048</v>
       </c>
       <c r="AJ136" s="105" t="n">
-        <v>38207000402919.43</v>
+        <v>8297528624162.402</v>
       </c>
       <c r="AK136" s="105" t="n">
-        <v>38218101646273.96</v>
+        <v>8325708710406.391</v>
       </c>
       <c r="AL136" s="105" t="n">
-        <v>38228266682280.11</v>
+        <v>8353358596072.669</v>
       </c>
       <c r="AM136" s="105" t="n">
-        <v>38237784178888.62</v>
+        <v>8379664194281.497</v>
       </c>
       <c r="AN136" s="105" t="n">
-        <v>38245314516450.94</v>
+        <v>8406410633121.284</v>
       </c>
       <c r="AO136" s="105" t="n">
-        <v>38249394204937.1</v>
+        <v>8432860569088.186</v>
       </c>
     </row>
     <row r="137">
@@ -61674,100 +61674,100 @@
         </is>
       </c>
       <c r="J137" s="105" t="n">
-        <v>2121869281264.54</v>
+        <v>31201368881.8499</v>
       </c>
       <c r="K137" s="105" t="n">
-        <v>2156037588088.04</v>
+        <v>31332284042.00655</v>
       </c>
       <c r="L137" s="105" t="n">
-        <v>2190268432633.842</v>
+        <v>31441385497.17782</v>
       </c>
       <c r="M137" s="105" t="n">
-        <v>2223550629404.44</v>
+        <v>31525802193.08648</v>
       </c>
       <c r="N137" s="105" t="n">
-        <v>2255972449031.18</v>
+        <v>31574028840.72649</v>
       </c>
       <c r="O137" s="105" t="n">
-        <v>2287414121636.487</v>
+        <v>31581085558.31496</v>
       </c>
       <c r="P137" s="105" t="n">
-        <v>2317854187819.06</v>
+        <v>31530939781.67416</v>
       </c>
       <c r="Q137" s="105" t="n">
-        <v>2347865852751.415</v>
+        <v>31413854068.4845</v>
       </c>
       <c r="R137" s="105" t="n">
-        <v>2376956181910.653</v>
+        <v>31210714671.21668</v>
       </c>
       <c r="S137" s="105" t="n">
-        <v>2405327474611.343</v>
+        <v>30904284573.35762</v>
       </c>
       <c r="T137" s="105" t="n">
-        <v>2432654214485.648</v>
+        <v>30486211716.68453</v>
       </c>
       <c r="U137" s="105" t="n">
-        <v>2458937710489.471</v>
+        <v>29949456853.58105</v>
       </c>
       <c r="V137" s="105" t="n">
-        <v>2484128319683.184</v>
+        <v>29307315610.98639</v>
       </c>
       <c r="W137" s="105" t="n">
-        <v>2507806463439.595</v>
+        <v>28578419664.31094</v>
       </c>
       <c r="X137" s="105" t="n">
-        <v>2529823964860.024</v>
+        <v>27788409229.27048</v>
       </c>
       <c r="Y137" s="105" t="n">
-        <v>2550098186767.805</v>
+        <v>26962810588.32072</v>
       </c>
       <c r="Z137" s="105" t="n">
-        <v>2568386622344.216</v>
+        <v>26150258567.65669</v>
       </c>
       <c r="AA137" s="105" t="n">
-        <v>2584356253282.729</v>
+        <v>25355024486.06948</v>
       </c>
       <c r="AB137" s="105" t="n">
-        <v>2597380351763.262</v>
+        <v>24573642383.8618</v>
       </c>
       <c r="AC137" s="105" t="n">
-        <v>2608089590029.697</v>
+        <v>23812790759.49619</v>
       </c>
       <c r="AD137" s="105" t="n">
-        <v>2615708619805.879</v>
+        <v>23074793159.17263</v>
       </c>
       <c r="AE137" s="105" t="n">
-        <v>2621002001190.733</v>
+        <v>22372488946.66556</v>
       </c>
       <c r="AF137" s="105" t="n">
-        <v>2624304947416.866</v>
+        <v>21713878834.45503</v>
       </c>
       <c r="AG137" s="105" t="n">
-        <v>2625601927139.94</v>
+        <v>21112816189.16462</v>
       </c>
       <c r="AH137" s="105" t="n">
-        <v>2625758575567.256</v>
+        <v>20576796868.88101</v>
       </c>
       <c r="AI137" s="105" t="n">
-        <v>2625097424754.602</v>
+        <v>20116701696.47699</v>
       </c>
       <c r="AJ137" s="105" t="n">
-        <v>2623997713140.111</v>
+        <v>19736322388.29635</v>
       </c>
       <c r="AK137" s="105" t="n">
-        <v>2622636803161.791</v>
+        <v>19434972932.81435</v>
       </c>
       <c r="AL137" s="105" t="n">
-        <v>2621172112901.053</v>
+        <v>19211049001.18235</v>
       </c>
       <c r="AM137" s="105" t="n">
-        <v>2619665009330.615</v>
+        <v>19055365832.43632</v>
       </c>
       <c r="AN137" s="105" t="n">
-        <v>2618033963141.283</v>
+        <v>18961623608.80217</v>
       </c>
       <c r="AO137" s="105" t="n">
-        <v>2616158557097.657</v>
+        <v>18916482890.73471</v>
       </c>
     </row>
     <row r="138">
@@ -61777,100 +61777,100 @@
         </is>
       </c>
       <c r="J138" s="106" t="n">
-        <v>2569794524796.245</v>
+        <v>723572682350.234</v>
       </c>
       <c r="K138" s="106" t="n">
-        <v>2600705768486.523</v>
+        <v>735180300520.0974</v>
       </c>
       <c r="L138" s="106" t="n">
-        <v>2631785903714.742</v>
+        <v>746850585167.5347</v>
       </c>
       <c r="M138" s="106" t="n">
-        <v>2662789709779.184</v>
+        <v>758488501588.0078</v>
       </c>
       <c r="N138" s="106" t="n">
-        <v>2693569103848.108</v>
+        <v>770060757977.7854</v>
       </c>
       <c r="O138" s="106" t="n">
-        <v>2724250698839.137</v>
+        <v>781600101726.5858</v>
       </c>
       <c r="P138" s="106" t="n">
-        <v>2754727205240.565</v>
+        <v>793059854284.6152</v>
       </c>
       <c r="Q138" s="106" t="n">
-        <v>2784941464735.019</v>
+        <v>804435105003.4548</v>
       </c>
       <c r="R138" s="106" t="n">
-        <v>2815157514417.673</v>
+        <v>815806282310.2073</v>
       </c>
       <c r="S138" s="106" t="n">
-        <v>2845466518331.553</v>
+        <v>827218079119.1267</v>
       </c>
       <c r="T138" s="106" t="n">
-        <v>2875828962498.972</v>
+        <v>838659758623.2073</v>
       </c>
       <c r="U138" s="106" t="n">
-        <v>2906138019824.139</v>
+        <v>850085958139.4209</v>
       </c>
       <c r="V138" s="106" t="n">
-        <v>2936488095667.699</v>
+        <v>861523464995.6309</v>
       </c>
       <c r="W138" s="106" t="n">
-        <v>2966836981725.71</v>
+        <v>872942124277.3484</v>
       </c>
       <c r="X138" s="106" t="n">
-        <v>2997290977743.116</v>
+        <v>884389896165.5549</v>
       </c>
       <c r="Y138" s="106" t="n">
-        <v>3027863362095.203</v>
+        <v>895873846200.0225</v>
       </c>
       <c r="Z138" s="106" t="n">
-        <v>3058365276208.146</v>
+        <v>907323355785.4028</v>
       </c>
       <c r="AA138" s="106" t="n">
-        <v>3088755226097.915</v>
+        <v>918730061754.5032</v>
       </c>
       <c r="AB138" s="106" t="n">
-        <v>3119100938134.347</v>
+        <v>930109655287.4604</v>
       </c>
       <c r="AC138" s="106" t="n">
-        <v>3149594200047.46</v>
+        <v>941529730130.9305</v>
       </c>
       <c r="AD138" s="106" t="n">
-        <v>3180136630084.696</v>
+        <v>952958210539.9116</v>
       </c>
       <c r="AE138" s="106" t="n">
-        <v>3210635490033.968</v>
+        <v>964376790154.0021</v>
       </c>
       <c r="AF138" s="106" t="n">
-        <v>3241153858888.212</v>
+        <v>975793165808.2705</v>
       </c>
       <c r="AG138" s="106" t="n">
-        <v>3271680408963.202</v>
+        <v>987205191527.7649</v>
       </c>
       <c r="AH138" s="106" t="n">
-        <v>3302267676000.854</v>
+        <v>998635951416.397</v>
       </c>
       <c r="AI138" s="106" t="n">
-        <v>3332886229228.785</v>
+        <v>1010078704669.949</v>
       </c>
       <c r="AJ138" s="106" t="n">
-        <v>3363599130556.776</v>
+        <v>1021552801067.993</v>
       </c>
       <c r="AK138" s="106" t="n">
-        <v>3394379906556.404</v>
+        <v>1033043303903.28</v>
       </c>
       <c r="AL138" s="106" t="n">
-        <v>3425037598356.925</v>
+        <v>1044489305891.689</v>
       </c>
       <c r="AM138" s="106" t="n">
-        <v>3455604684480.912</v>
+        <v>1055901128173.417</v>
       </c>
       <c r="AN138" s="106" t="n">
-        <v>3486145675800.441</v>
+        <v>1067289340972.257</v>
       </c>
       <c r="AO138" s="106" t="n">
-        <v>3516579670980.12</v>
+        <v>1078639760275.989</v>
       </c>
     </row>
     <row r="139">
@@ -62530,100 +62530,100 @@
         </is>
       </c>
       <c r="J147" s="105" t="n">
-        <v>10364068453610.8</v>
+        <v>3857834452227.595</v>
       </c>
       <c r="K147" s="105" t="n">
-        <v>10419669044629.02</v>
+        <v>3889061395088.145</v>
       </c>
       <c r="L147" s="105" t="n">
-        <v>10468978941564.29</v>
+        <v>3916053335933.53</v>
       </c>
       <c r="M147" s="105" t="n">
-        <v>10511812060985.88</v>
+        <v>3940254034340.508</v>
       </c>
       <c r="N147" s="105" t="n">
-        <v>10544738737869.92</v>
+        <v>3961223829477.875</v>
       </c>
       <c r="O147" s="105" t="n">
-        <v>10560350618865.28</v>
+        <v>3977796568810.467</v>
       </c>
       <c r="P147" s="105" t="n">
-        <v>10571575166115.56</v>
+        <v>3991332979634.725</v>
       </c>
       <c r="Q147" s="105" t="n">
-        <v>10576158073578.37</v>
+        <v>4000831226098.594</v>
       </c>
       <c r="R147" s="105" t="n">
-        <v>10569661638498.58</v>
+        <v>4007602689497.406</v>
       </c>
       <c r="S147" s="105" t="n">
-        <v>10554688651745.53</v>
+        <v>4011629420653.136</v>
       </c>
       <c r="T147" s="105" t="n">
-        <v>10534698540489.16</v>
+        <v>4011433685641.694</v>
       </c>
       <c r="U147" s="105" t="n">
-        <v>10499641924002.77</v>
+        <v>4009315293387.386</v>
       </c>
       <c r="V147" s="105" t="n">
-        <v>10469430488087.86</v>
+        <v>4006645938053.484</v>
       </c>
       <c r="W147" s="105" t="n">
-        <v>10440022301204.77</v>
+        <v>4006345292698.902</v>
       </c>
       <c r="X147" s="105" t="n">
-        <v>10413772957798.45</v>
+        <v>4005826974185.353</v>
       </c>
       <c r="Y147" s="105" t="n">
-        <v>10389491472294.8</v>
+        <v>4006957910699.67</v>
       </c>
       <c r="Z147" s="105" t="n">
-        <v>10367163762715.73</v>
+        <v>4009905814103.979</v>
       </c>
       <c r="AA147" s="105" t="n">
-        <v>10352270605850.8</v>
+        <v>4014668693598.657</v>
       </c>
       <c r="AB147" s="105" t="n">
-        <v>10342764333047.57</v>
+        <v>4019925761693.902</v>
       </c>
       <c r="AC147" s="105" t="n">
-        <v>10339461163740.51</v>
+        <v>4029555905376.899</v>
       </c>
       <c r="AD147" s="105" t="n">
-        <v>10345365022153.26</v>
+        <v>4042666838885.546</v>
       </c>
       <c r="AE147" s="105" t="n">
-        <v>10361009954329.17</v>
+        <v>4057689284802.333</v>
       </c>
       <c r="AF147" s="105" t="n">
-        <v>10387594624190.87</v>
+        <v>4075761050390.21</v>
       </c>
       <c r="AG147" s="105" t="n">
-        <v>10417980320450.14</v>
+        <v>4097705462851.848</v>
       </c>
       <c r="AH147" s="105" t="n">
-        <v>10459125780099.98</v>
+        <v>4122531021051.686</v>
       </c>
       <c r="AI147" s="105" t="n">
-        <v>10509399202825.63</v>
+        <v>4150118877533.28</v>
       </c>
       <c r="AJ147" s="105" t="n">
-        <v>10572897558786</v>
+        <v>4181750083921.494</v>
       </c>
       <c r="AK147" s="105" t="n">
-        <v>10644361021882.57</v>
+        <v>4216047354065.347</v>
       </c>
       <c r="AL147" s="105" t="n">
-        <v>10720565652420.8</v>
+        <v>4252899077385.009</v>
       </c>
       <c r="AM147" s="105" t="n">
-        <v>10805945846431.33</v>
+        <v>4292120245273.077</v>
       </c>
       <c r="AN147" s="105" t="n">
-        <v>10900787632006.09</v>
+        <v>4334373506083.25</v>
       </c>
       <c r="AO147" s="105" t="n">
-        <v>11000993533180.54</v>
+        <v>4379407204367.713</v>
       </c>
     </row>
     <row r="148">
@@ -62741,100 +62741,100 @@
         </is>
       </c>
       <c r="J149" s="105" t="n">
-        <v>20294500999.74518</v>
+        <v>28528715228.60286</v>
       </c>
       <c r="K149" s="105" t="n">
-        <v>20530376479.56819</v>
+        <v>28671361898.84648</v>
       </c>
       <c r="L149" s="105" t="n">
-        <v>20758222807.8331</v>
+        <v>28802236129.70659</v>
       </c>
       <c r="M149" s="105" t="n">
-        <v>20961378146.36508</v>
+        <v>28909585100.93065</v>
       </c>
       <c r="N149" s="105" t="n">
-        <v>21136955840.38528</v>
+        <v>28994256664.88601</v>
       </c>
       <c r="O149" s="105" t="n">
-        <v>21287271384.89673</v>
+        <v>29054854536.46455</v>
       </c>
       <c r="P149" s="105" t="n">
-        <v>21405839182.20307</v>
+        <v>29090896549.65253</v>
       </c>
       <c r="Q149" s="105" t="n">
-        <v>21495798726.19031</v>
+        <v>29099932040.22047</v>
       </c>
       <c r="R149" s="105" t="n">
-        <v>21550005628.56703</v>
+        <v>29083186701.82096</v>
       </c>
       <c r="S149" s="105" t="n">
-        <v>21567151529.40044</v>
+        <v>29039206476.72799</v>
       </c>
       <c r="T149" s="105" t="n">
-        <v>21550097169.41604</v>
+        <v>28972090207.96961</v>
       </c>
       <c r="U149" s="105" t="n">
-        <v>21494024126.40891</v>
+        <v>28881528790.02043</v>
       </c>
       <c r="V149" s="105" t="n">
-        <v>21397775219.66346</v>
+        <v>28769145211.8703</v>
       </c>
       <c r="W149" s="105" t="n">
-        <v>21259068357.16033</v>
+        <v>28637364338.94054</v>
       </c>
       <c r="X149" s="105" t="n">
-        <v>21074058991.01777</v>
+        <v>28479307170.43095</v>
       </c>
       <c r="Y149" s="105" t="n">
-        <v>20846235309.15492</v>
+        <v>28306439529.21646</v>
       </c>
       <c r="Z149" s="105" t="n">
-        <v>20575561082.18927</v>
+        <v>28113016723.72952</v>
       </c>
       <c r="AA149" s="105" t="n">
-        <v>20262653678.10637</v>
+        <v>27895357387.6671</v>
       </c>
       <c r="AB149" s="105" t="n">
-        <v>19910532255.00833</v>
+        <v>27655681289.59666</v>
       </c>
       <c r="AC149" s="105" t="n">
-        <v>19516510924.57521</v>
+        <v>27400335026.36834</v>
       </c>
       <c r="AD149" s="105" t="n">
-        <v>19086288512.10466</v>
+        <v>27127828458.74151</v>
       </c>
       <c r="AE149" s="105" t="n">
-        <v>18626085790.09579</v>
+        <v>26840469968.57059</v>
       </c>
       <c r="AF149" s="105" t="n">
-        <v>18136029687.26434</v>
+        <v>26544267962.67579</v>
       </c>
       <c r="AG149" s="105" t="n">
-        <v>17626846897.20046</v>
+        <v>26239247261.28473</v>
       </c>
       <c r="AH149" s="105" t="n">
-        <v>17102475687.27935</v>
+        <v>25936526872.70276</v>
       </c>
       <c r="AI149" s="105" t="n">
-        <v>16571583336.34422</v>
+        <v>25635002333.30252</v>
       </c>
       <c r="AJ149" s="105" t="n">
-        <v>16042577334.00192</v>
+        <v>25341550444.57268</v>
       </c>
       <c r="AK149" s="105" t="n">
-        <v>15517068975.16528</v>
+        <v>25055455537.32658</v>
       </c>
       <c r="AL149" s="105" t="n">
-        <v>15000351793.26966</v>
+        <v>24779175357.33777</v>
       </c>
       <c r="AM149" s="105" t="n">
-        <v>14497990605.8354</v>
+        <v>24515823022.71663</v>
       </c>
       <c r="AN149" s="105" t="n">
-        <v>14009668998.88405</v>
+        <v>24264349010.13656</v>
       </c>
       <c r="AO149" s="105" t="n">
-        <v>13535616620.4222</v>
+        <v>24024979006.30046</v>
       </c>
     </row>
     <row r="150">
@@ -63680,100 +63680,100 @@
         </is>
       </c>
       <c r="J160" s="105" t="n">
-        <v>8186604958806.647</v>
+        <v>2177873062535.67</v>
       </c>
       <c r="K160" s="105" t="n">
-        <v>8184913727845.438</v>
+        <v>2191812840358.25</v>
       </c>
       <c r="L160" s="105" t="n">
-        <v>8133359522705.55</v>
+        <v>2190339976711.51</v>
       </c>
       <c r="M160" s="105" t="n">
-        <v>7979326304136.828</v>
+        <v>2160613176718.226</v>
       </c>
       <c r="N160" s="105" t="n">
-        <v>7746672941184.208</v>
+        <v>2109387286938.44</v>
       </c>
       <c r="O160" s="105" t="n">
-        <v>7500071784586.15</v>
+        <v>2053315460286.579</v>
       </c>
       <c r="P160" s="105" t="n">
-        <v>7268180489309.272</v>
+        <v>1999830756921.384</v>
       </c>
       <c r="Q160" s="105" t="n">
-        <v>7045127102725.318</v>
+        <v>1947216920573.236</v>
       </c>
       <c r="R160" s="105" t="n">
-        <v>6831472917499.84</v>
+        <v>1896602707435.643</v>
       </c>
       <c r="S160" s="105" t="n">
-        <v>6631996177021</v>
+        <v>1849446414454.857</v>
       </c>
       <c r="T160" s="105" t="n">
-        <v>6448603405579.505</v>
+        <v>1806944361874.328</v>
       </c>
       <c r="U160" s="105" t="n">
-        <v>6286900922707.373</v>
+        <v>1769499393501.46</v>
       </c>
       <c r="V160" s="105" t="n">
-        <v>6149016728531.511</v>
+        <v>1738602851318.328</v>
       </c>
       <c r="W160" s="105" t="n">
-        <v>6032096176406.583</v>
+        <v>1713406153935.002</v>
       </c>
       <c r="X160" s="105" t="n">
-        <v>5932867511739.704</v>
+        <v>1692201178772.434</v>
       </c>
       <c r="Y160" s="105" t="n">
-        <v>5843541510626.251</v>
+        <v>1674106871896.595</v>
       </c>
       <c r="Z160" s="105" t="n">
-        <v>5762260857344.656</v>
+        <v>1657798288360.937</v>
       </c>
       <c r="AA160" s="105" t="n">
-        <v>5685870726846.58</v>
+        <v>1642569655908.401</v>
       </c>
       <c r="AB160" s="105" t="n">
-        <v>5616802499586.014</v>
+        <v>1628700047294.505</v>
       </c>
       <c r="AC160" s="105" t="n">
-        <v>5556072501804.186</v>
+        <v>1617159107051.757</v>
       </c>
       <c r="AD160" s="105" t="n">
-        <v>5500394176884.904</v>
+        <v>1607129159901.042</v>
       </c>
       <c r="AE160" s="105" t="n">
-        <v>5448937933354.602</v>
+        <v>1597742754017.143</v>
       </c>
       <c r="AF160" s="105" t="n">
-        <v>5403776214170.251</v>
+        <v>1590522165982.128</v>
       </c>
       <c r="AG160" s="105" t="n">
-        <v>5369212316135.485</v>
+        <v>1585446069290.352</v>
       </c>
       <c r="AH160" s="105" t="n">
-        <v>5342331775816.116</v>
+        <v>1582865455962.299</v>
       </c>
       <c r="AI160" s="105" t="n">
-        <v>5321707120192.683</v>
+        <v>1582152134168.777</v>
       </c>
       <c r="AJ160" s="105" t="n">
-        <v>5309361293045.32</v>
+        <v>1583327287137.338</v>
       </c>
       <c r="AK160" s="105" t="n">
-        <v>5302186676488.47</v>
+        <v>1586660363751.626</v>
       </c>
       <c r="AL160" s="105" t="n">
-        <v>5301237752462.104</v>
+        <v>1591343881048.59</v>
       </c>
       <c r="AM160" s="105" t="n">
-        <v>5305981271484.556</v>
+        <v>1598014476562.875</v>
       </c>
       <c r="AN160" s="105" t="n">
-        <v>5318638281841.497</v>
+        <v>1606788479685.011</v>
       </c>
       <c r="AO160" s="105" t="n">
-        <v>5337964821134.816</v>
+        <v>1617572775335.02</v>
       </c>
     </row>
     <row r="161">
@@ -64835,100 +64835,100 @@
         </is>
       </c>
       <c r="J173" s="105" t="n">
-        <v>10822809169671.44</v>
+        <v>3404938332994.735</v>
       </c>
       <c r="K173" s="105" t="n">
-        <v>10921604890789.02</v>
+        <v>3462813674315.854</v>
       </c>
       <c r="L173" s="105" t="n">
-        <v>11013772704474.39</v>
+        <v>3519470060140.741</v>
       </c>
       <c r="M173" s="105" t="n">
-        <v>11102564632440.21</v>
+        <v>3573064124766.214</v>
       </c>
       <c r="N173" s="105" t="n">
-        <v>11176784925270.67</v>
+        <v>3622029072356.398</v>
       </c>
       <c r="O173" s="105" t="n">
-        <v>11233602967014.94</v>
+        <v>3663633543777.772</v>
       </c>
       <c r="P173" s="105" t="n">
-        <v>11266515469420.98</v>
+        <v>3695366521999.082</v>
       </c>
       <c r="Q173" s="105" t="n">
-        <v>11272241061303.04</v>
+        <v>3716444935017.037</v>
       </c>
       <c r="R173" s="105" t="n">
-        <v>11257030811512.36</v>
+        <v>3729586208395.079</v>
       </c>
       <c r="S173" s="105" t="n">
-        <v>11227775207784.62</v>
+        <v>3736903455037.641</v>
       </c>
       <c r="T173" s="105" t="n">
-        <v>11197135806951.69</v>
+        <v>3741790978284.854</v>
       </c>
       <c r="U173" s="105" t="n">
-        <v>11166692504087.37</v>
+        <v>3746887555135.745</v>
       </c>
       <c r="V173" s="105" t="n">
-        <v>11144489594840.49</v>
+        <v>3755207488851.736</v>
       </c>
       <c r="W173" s="105" t="n">
-        <v>11134287048527.03</v>
+        <v>3767063400842.871</v>
       </c>
       <c r="X173" s="105" t="n">
-        <v>11133425870696.58</v>
+        <v>3782420638385.043</v>
       </c>
       <c r="Y173" s="105" t="n">
-        <v>11142005538097.04</v>
+        <v>3801642687526.011</v>
       </c>
       <c r="Z173" s="105" t="n">
-        <v>11158000394492.48</v>
+        <v>3823301499604.497</v>
       </c>
       <c r="AA173" s="105" t="n">
-        <v>11180989373736.95</v>
+        <v>3847051871245.505</v>
       </c>
       <c r="AB173" s="105" t="n">
-        <v>11208901699327.33</v>
+        <v>3872668327732.11</v>
       </c>
       <c r="AC173" s="105" t="n">
-        <v>11241752825667.44</v>
+        <v>3899929828985.905</v>
       </c>
       <c r="AD173" s="105" t="n">
-        <v>11280570763440.42</v>
+        <v>3928198231697.381</v>
       </c>
       <c r="AE173" s="105" t="n">
-        <v>11319254456393.47</v>
+        <v>3956943247377.603</v>
       </c>
       <c r="AF173" s="105" t="n">
-        <v>11364932703792.55</v>
+        <v>3987100192759.358</v>
       </c>
       <c r="AG173" s="105" t="n">
-        <v>11410616523629.37</v>
+        <v>4018879180859.174</v>
       </c>
       <c r="AH173" s="105" t="n">
-        <v>11463303932381.11</v>
+        <v>4051104824026.939</v>
       </c>
       <c r="AI173" s="105" t="n">
-        <v>11518276992021.48</v>
+        <v>4085099764337.4</v>
       </c>
       <c r="AJ173" s="105" t="n">
-        <v>11579532295999.35</v>
+        <v>4120669338645.351</v>
       </c>
       <c r="AK173" s="105" t="n">
-        <v>11641568093663.81</v>
+        <v>4157130093139.832</v>
       </c>
       <c r="AL173" s="105" t="n">
-        <v>11708696268535.89</v>
+        <v>4194869574836.548</v>
       </c>
       <c r="AM173" s="105" t="n">
-        <v>11778536567353.84</v>
+        <v>4233201133166.623</v>
       </c>
       <c r="AN173" s="105" t="n">
-        <v>11850802590796.98</v>
+        <v>4272089251574.164</v>
       </c>
       <c r="AO173" s="105" t="n">
-        <v>11924859156107.78</v>
+        <v>4312124874461.562</v>
       </c>
     </row>
     <row r="174">
@@ -65051,100 +65051,100 @@
         </is>
       </c>
       <c r="J175" s="105" t="n">
-        <v>8374027459842.864</v>
+        <v>4728098652263.993</v>
       </c>
       <c r="K175" s="105" t="n">
-        <v>8470537041409.066</v>
+        <v>4782820161310.949</v>
       </c>
       <c r="L175" s="105" t="n">
-        <v>8566023238577.131</v>
+        <v>4839050284945.049</v>
       </c>
       <c r="M175" s="105" t="n">
-        <v>8652386280595.023</v>
+        <v>4893300836220.663</v>
       </c>
       <c r="N175" s="105" t="n">
-        <v>8729937137759.73</v>
+        <v>4945065109401.111</v>
       </c>
       <c r="O175" s="105" t="n">
-        <v>8797783310627.414</v>
+        <v>4995524621627.413</v>
       </c>
       <c r="P175" s="105" t="n">
-        <v>8862590903396.299</v>
+        <v>5047073379213.731</v>
       </c>
       <c r="Q175" s="105" t="n">
-        <v>8926529160481.523</v>
+        <v>5098181921043.688</v>
       </c>
       <c r="R175" s="105" t="n">
-        <v>8993069688808.725</v>
+        <v>5152675659715.038</v>
       </c>
       <c r="S175" s="105" t="n">
-        <v>9063344791670.434</v>
+        <v>5211314773383.69</v>
       </c>
       <c r="T175" s="105" t="n">
-        <v>9141470370598.518</v>
+        <v>5272743534575.14</v>
       </c>
       <c r="U175" s="105" t="n">
-        <v>9221289365864.295</v>
+        <v>5338241074803.205</v>
       </c>
       <c r="V175" s="105" t="n">
-        <v>9300427394320.707</v>
+        <v>5404123848145.073</v>
       </c>
       <c r="W175" s="105" t="n">
-        <v>9382440713613.949</v>
+        <v>5470136616032.932</v>
       </c>
       <c r="X175" s="105" t="n">
-        <v>9462440088762.238</v>
+        <v>5537059296689.151</v>
       </c>
       <c r="Y175" s="105" t="n">
-        <v>9544200835428.006</v>
+        <v>5603968143302.426</v>
       </c>
       <c r="Z175" s="105" t="n">
-        <v>9627446700994.387</v>
+        <v>5669983385506.326</v>
       </c>
       <c r="AA175" s="105" t="n">
-        <v>9710120632705.348</v>
+        <v>5736738902673.053</v>
       </c>
       <c r="AB175" s="105" t="n">
-        <v>9793040356165.936</v>
+        <v>5801854854348.345</v>
       </c>
       <c r="AC175" s="105" t="n">
-        <v>9872189421960.746</v>
+        <v>5868992241781.454</v>
       </c>
       <c r="AD175" s="105" t="n">
-        <v>9960964512403.115</v>
+        <v>5934620184501.146</v>
       </c>
       <c r="AE175" s="105" t="n">
-        <v>10043449157395.06</v>
+        <v>6001267801966.442</v>
       </c>
       <c r="AF175" s="105" t="n">
-        <v>10129042130020.6</v>
+        <v>6068259462558.198</v>
       </c>
       <c r="AG175" s="105" t="n">
-        <v>10211333758941.61</v>
+        <v>6135236128393.784</v>
       </c>
       <c r="AH175" s="105" t="n">
-        <v>10295901019817.31</v>
+        <v>6202709736785.908</v>
       </c>
       <c r="AI175" s="105" t="n">
-        <v>10378026545661.09</v>
+        <v>6270922330663.916</v>
       </c>
       <c r="AJ175" s="105" t="n">
-        <v>10465924800587.46</v>
+        <v>6339316206119.625</v>
       </c>
       <c r="AK175" s="105" t="n">
-        <v>10550527183875.12</v>
+        <v>6408634110270.532</v>
       </c>
       <c r="AL175" s="105" t="n">
-        <v>10636278217510.94</v>
+        <v>6478178110851.034</v>
       </c>
       <c r="AM175" s="105" t="n">
-        <v>10722913561973.73</v>
+        <v>6547690628162.004</v>
       </c>
       <c r="AN175" s="105" t="n">
-        <v>10809140306861.82</v>
+        <v>6617798601301.63</v>
       </c>
       <c r="AO175" s="105" t="n">
-        <v>10894107698150.65</v>
+        <v>6689029429467.017</v>
       </c>
     </row>
     <row r="176">
@@ -65159,100 +65159,100 @@
         </is>
       </c>
       <c r="J176" s="105" t="n">
-        <v>15122617871.96817</v>
+        <v>0</v>
       </c>
       <c r="K176" s="105" t="n">
-        <v>14469167510.57298</v>
+        <v>0</v>
       </c>
       <c r="L176" s="105" t="n">
-        <v>13809337939.24295</v>
+        <v>0</v>
       </c>
       <c r="M176" s="105" t="n">
-        <v>13140470720.70957</v>
+        <v>0</v>
       </c>
       <c r="N176" s="105" t="n">
-        <v>12467215019.30696</v>
+        <v>0</v>
       </c>
       <c r="O176" s="105" t="n">
-        <v>11794532601.55236</v>
+        <v>0</v>
       </c>
       <c r="P176" s="105" t="n">
-        <v>11145211084.88217</v>
+        <v>0</v>
       </c>
       <c r="Q176" s="105" t="n">
-        <v>10531415379.6593</v>
+        <v>0</v>
       </c>
       <c r="R176" s="105" t="n">
-        <v>9968285447.205732</v>
+        <v>0</v>
       </c>
       <c r="S176" s="105" t="n">
-        <v>9470978492.425524</v>
+        <v>0</v>
       </c>
       <c r="T176" s="105" t="n">
-        <v>9046946380.775579</v>
+        <v>0</v>
       </c>
       <c r="U176" s="105" t="n">
-        <v>8704771077.835358</v>
+        <v>0</v>
       </c>
       <c r="V176" s="105" t="n">
-        <v>8438563966.582162</v>
+        <v>0</v>
       </c>
       <c r="W176" s="105" t="n">
-        <v>8246407543.47526</v>
+        <v>0</v>
       </c>
       <c r="X176" s="105" t="n">
-        <v>8105753831.863845</v>
+        <v>0</v>
       </c>
       <c r="Y176" s="105" t="n">
-        <v>8007281463.105695</v>
+        <v>0</v>
       </c>
       <c r="Z176" s="105" t="n">
-        <v>7931409987.297141</v>
+        <v>0</v>
       </c>
       <c r="AA176" s="105" t="n">
-        <v>7868404549.343082</v>
+        <v>0</v>
       </c>
       <c r="AB176" s="105" t="n">
-        <v>7808048825.270263</v>
+        <v>0</v>
       </c>
       <c r="AC176" s="105" t="n">
-        <v>7747119106.861128</v>
+        <v>0</v>
       </c>
       <c r="AD176" s="105" t="n">
-        <v>7692210023.375699</v>
+        <v>0</v>
       </c>
       <c r="AE176" s="105" t="n">
-        <v>7632148698.697413</v>
+        <v>0</v>
       </c>
       <c r="AF176" s="105" t="n">
-        <v>7568648183.934236</v>
+        <v>0</v>
       </c>
       <c r="AG176" s="105" t="n">
-        <v>7505451850.268127</v>
+        <v>0</v>
       </c>
       <c r="AH176" s="105" t="n">
-        <v>7437873700.815057</v>
+        <v>0</v>
       </c>
       <c r="AI176" s="105" t="n">
-        <v>7367640416.479196</v>
+        <v>0</v>
       </c>
       <c r="AJ176" s="105" t="n">
-        <v>7297260859.87851</v>
+        <v>0</v>
       </c>
       <c r="AK176" s="105" t="n">
-        <v>7223002972.537763</v>
+        <v>0</v>
       </c>
       <c r="AL176" s="105" t="n">
-        <v>7149076334.13016</v>
+        <v>0</v>
       </c>
       <c r="AM176" s="105" t="n">
-        <v>7073293660.261165</v>
+        <v>0</v>
       </c>
       <c r="AN176" s="105" t="n">
-        <v>6994266753.626924</v>
+        <v>0</v>
       </c>
       <c r="AO176" s="105" t="n">
-        <v>6914681926.439015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -66020,100 +66020,100 @@
         </is>
       </c>
       <c r="J186" s="105" t="n">
-        <v>44327837978797.8</v>
+        <v>13882703697093.65</v>
       </c>
       <c r="K186" s="105" t="n">
-        <v>44643827226840.55</v>
+        <v>13981666003898.31</v>
       </c>
       <c r="L186" s="105" t="n">
-        <v>45009429739996.57</v>
+        <v>14096166317752.67</v>
       </c>
       <c r="M186" s="105" t="n">
-        <v>45454452852941.02</v>
+        <v>14235539774638.2</v>
       </c>
       <c r="N186" s="105" t="n">
-        <v>45970962380816.53</v>
+        <v>14397301526602.07</v>
       </c>
       <c r="O186" s="105" t="n">
-        <v>46571322264294.15</v>
+        <v>14585323743655.12</v>
       </c>
       <c r="P186" s="105" t="n">
-        <v>47187708019915.52</v>
+        <v>14778364983620.25</v>
       </c>
       <c r="Q186" s="105" t="n">
-        <v>47846954124009.71</v>
+        <v>14984829335231.09</v>
       </c>
       <c r="R186" s="105" t="n">
-        <v>48535003484794.68</v>
+        <v>15200314363156.9</v>
       </c>
       <c r="S186" s="105" t="n">
-        <v>49240909683459.67</v>
+        <v>15421391840445.45</v>
       </c>
       <c r="T186" s="105" t="n">
-        <v>49976898846050.48</v>
+        <v>15651890775976.83</v>
       </c>
       <c r="U186" s="105" t="n">
-        <v>50732398622025.12</v>
+        <v>15888500094439.26</v>
       </c>
       <c r="V186" s="105" t="n">
-        <v>51503668328696.48</v>
+        <v>16130048279428.21</v>
       </c>
       <c r="W186" s="105" t="n">
-        <v>52311321096450.88</v>
+        <v>16382991002920.28</v>
       </c>
       <c r="X186" s="105" t="n">
-        <v>53137145706943.2</v>
+        <v>16641624829788.08</v>
       </c>
       <c r="Y186" s="105" t="n">
-        <v>53992383896038.38</v>
+        <v>16909470475121.07</v>
       </c>
       <c r="Z186" s="105" t="n">
-        <v>54872527156708.27</v>
+        <v>17185115953357.98</v>
       </c>
       <c r="AA186" s="105" t="n">
-        <v>55761982748488.7</v>
+        <v>17463677890854.61</v>
       </c>
       <c r="AB186" s="105" t="n">
-        <v>56690558006054.85</v>
+        <v>17754491423592.42</v>
       </c>
       <c r="AC186" s="105" t="n">
-        <v>57625216794938.48</v>
+        <v>18047210211956.57</v>
       </c>
       <c r="AD186" s="105" t="n">
-        <v>58588836342941.79</v>
+        <v>18348999003642.18</v>
       </c>
       <c r="AE186" s="105" t="n">
-        <v>59579073801434.4</v>
+        <v>18659124059427.48</v>
       </c>
       <c r="AF186" s="105" t="n">
-        <v>60599472975067.34</v>
+        <v>18978695236958.87</v>
       </c>
       <c r="AG186" s="105" t="n">
-        <v>61640859347355.29</v>
+        <v>19304839238107.31</v>
       </c>
       <c r="AH186" s="105" t="n">
-        <v>62714907785842.82</v>
+        <v>19641212427230.15</v>
       </c>
       <c r="AI186" s="105" t="n">
-        <v>63807029628050.19</v>
+        <v>19983245890349.66</v>
       </c>
       <c r="AJ186" s="105" t="n">
-        <v>64910156952479.1</v>
+        <v>20328726078048.85</v>
       </c>
       <c r="AK186" s="105" t="n">
-        <v>66054038030393.88</v>
+        <v>20686969628681.72</v>
       </c>
       <c r="AL186" s="105" t="n">
-        <v>67196422835233.84</v>
+        <v>21044744572752.78</v>
       </c>
       <c r="AM186" s="105" t="n">
-        <v>68374974135317.07</v>
+        <v>21413846230693</v>
       </c>
       <c r="AN186" s="105" t="n">
-        <v>69580418975140.26</v>
+        <v>21791370474994.3</v>
       </c>
       <c r="AO186" s="105" t="n">
-        <v>70819470895736.59</v>
+        <v>22179419869309.02</v>
       </c>
     </row>
     <row r="187">
@@ -66236,100 +66236,100 @@
         </is>
       </c>
       <c r="J188" s="105" t="n">
-        <v>14262593076236.91</v>
+        <v>4466794742489.413</v>
       </c>
       <c r="K188" s="105" t="n">
-        <v>13932802677859.08</v>
+        <v>4363510156739.579</v>
       </c>
       <c r="L188" s="105" t="n">
-        <v>13702396312136.68</v>
+        <v>4291350912095.655</v>
       </c>
       <c r="M188" s="105" t="n">
-        <v>13655145583457.39</v>
+        <v>4276552810143.557</v>
       </c>
       <c r="N188" s="105" t="n">
-        <v>13640005662476.39</v>
+        <v>4271811251643.071</v>
       </c>
       <c r="O188" s="105" t="n">
-        <v>13619845351573.23</v>
+        <v>4265497394810.176</v>
       </c>
       <c r="P188" s="105" t="n">
-        <v>13592243050903.09</v>
+        <v>4256852836919.826</v>
       </c>
       <c r="Q188" s="105" t="n">
-        <v>13564266681964.22</v>
+        <v>4248091127389.019</v>
       </c>
       <c r="R188" s="105" t="n">
-        <v>13501600403053.3</v>
+        <v>4228465144675.048</v>
       </c>
       <c r="S188" s="105" t="n">
-        <v>13448581147914.42</v>
+        <v>4211860441109.63</v>
       </c>
       <c r="T188" s="105" t="n">
-        <v>13410327745487.81</v>
+        <v>4199880144404.244</v>
       </c>
       <c r="U188" s="105" t="n">
-        <v>13393199356341.57</v>
+        <v>4194515832446.608</v>
       </c>
       <c r="V188" s="105" t="n">
-        <v>13382607317995.96</v>
+        <v>4191198591259.013</v>
       </c>
       <c r="W188" s="105" t="n">
-        <v>13379378518202.88</v>
+        <v>4190187387625.619</v>
       </c>
       <c r="X188" s="105" t="n">
-        <v>13384989542233.54</v>
+        <v>4191944662232.431</v>
       </c>
       <c r="Y188" s="105" t="n">
-        <v>13383946088641.87</v>
+        <v>4191617870814.321</v>
       </c>
       <c r="Z188" s="105" t="n">
-        <v>13360478226731.16</v>
+        <v>4184268146844.78</v>
       </c>
       <c r="AA188" s="105" t="n">
-        <v>13341105427972.64</v>
+        <v>4178200925044.419</v>
       </c>
       <c r="AB188" s="105" t="n">
-        <v>13327225526423.1</v>
+        <v>4173853982595.991</v>
       </c>
       <c r="AC188" s="105" t="n">
-        <v>13323248590092.6</v>
+        <v>4172608475681.688</v>
       </c>
       <c r="AD188" s="105" t="n">
-        <v>13319744161048.89</v>
+        <v>4171510949786.908</v>
       </c>
       <c r="AE188" s="105" t="n">
-        <v>13327264902030.34</v>
+        <v>4173866314347.617</v>
       </c>
       <c r="AF188" s="105" t="n">
-        <v>13333525623580.35</v>
+        <v>4175827062856.272</v>
       </c>
       <c r="AG188" s="105" t="n">
-        <v>13330729955466.82</v>
+        <v>4174951508490.77</v>
       </c>
       <c r="AH188" s="105" t="n">
-        <v>13317873819705.33</v>
+        <v>4170925191584.637</v>
       </c>
       <c r="AI188" s="105" t="n">
-        <v>13301119498827.8</v>
+        <v>4165678031267.456</v>
       </c>
       <c r="AJ188" s="105" t="n">
-        <v>13282179831748.85</v>
+        <v>4159746458734.989</v>
       </c>
       <c r="AK188" s="105" t="n">
-        <v>13264972691388.14</v>
+        <v>4154357483274.1</v>
       </c>
       <c r="AL188" s="105" t="n">
-        <v>13252116555626.65</v>
+        <v>4150331166367.966</v>
       </c>
       <c r="AM188" s="105" t="n">
-        <v>13234515659193.62</v>
+        <v>4144818873390.811</v>
       </c>
       <c r="AN188" s="105" t="n">
-        <v>13222289533147.85</v>
+        <v>4140989864510.704</v>
       </c>
       <c r="AO188" s="105" t="n">
-        <v>13208724636456.17</v>
+        <v>4136741576075.289</v>
       </c>
     </row>
     <row r="189">
@@ -66344,100 +66344,100 @@
         </is>
       </c>
       <c r="J189" s="105" t="n">
-        <v>3436072989558.079</v>
+        <v>1076117973956.629</v>
       </c>
       <c r="K189" s="105" t="n">
-        <v>3414022649507.744</v>
+        <v>1069212193045.65</v>
       </c>
       <c r="L189" s="105" t="n">
-        <v>3411404171626.766</v>
+        <v>1068392131562.471</v>
       </c>
       <c r="M189" s="105" t="n">
-        <v>3415203917724.726</v>
+        <v>1069582145594.452</v>
       </c>
       <c r="N189" s="105" t="n">
-        <v>3414258903151.14</v>
+        <v>1069286183555.41</v>
       </c>
       <c r="O189" s="105" t="n">
-        <v>3410321342427.866</v>
+        <v>1068053008392.735</v>
       </c>
       <c r="P189" s="105" t="n">
-        <v>3399591489456.944</v>
+        <v>1064692606074.446</v>
       </c>
       <c r="Q189" s="105" t="n">
-        <v>3389432582790.896</v>
+        <v>1061511014154.745</v>
       </c>
       <c r="R189" s="105" t="n">
-        <v>3383152173437.273</v>
+        <v>1059544099770.278</v>
       </c>
       <c r="S189" s="105" t="n">
-        <v>3383939685581.929</v>
+        <v>1059790734802.813</v>
       </c>
       <c r="T189" s="105" t="n">
-        <v>3383841246563.846</v>
+        <v>1059759905423.746</v>
       </c>
       <c r="U189" s="105" t="n">
-        <v>3378190846925.948</v>
+        <v>1057990299065.308</v>
       </c>
       <c r="V189" s="105" t="n">
-        <v>3370394476693.864</v>
+        <v>1055548612243.212</v>
       </c>
       <c r="W189" s="105" t="n">
-        <v>3361633404084.578</v>
+        <v>1052804797506.26</v>
       </c>
       <c r="X189" s="105" t="n">
-        <v>3361436526048.417</v>
+        <v>1052743138748.126</v>
       </c>
       <c r="Y189" s="105" t="n">
-        <v>3361160896797.787</v>
+        <v>1052656816486.739</v>
       </c>
       <c r="Z189" s="105" t="n">
-        <v>3362184662585.837</v>
+        <v>1052977442029.035</v>
       </c>
       <c r="AA189" s="105" t="n">
-        <v>3357065833645.581</v>
+        <v>1051374314317.557</v>
       </c>
       <c r="AB189" s="105" t="n">
-        <v>3356770516591.336</v>
+        <v>1051281826180.357</v>
       </c>
       <c r="AC189" s="105" t="n">
-        <v>3359034614007.218</v>
+        <v>1051990901898.894</v>
       </c>
       <c r="AD189" s="105" t="n">
-        <v>3359723687133.792</v>
+        <v>1052206707552.362</v>
       </c>
       <c r="AE189" s="105" t="n">
-        <v>3360649013903.761</v>
+        <v>1052496503715.591</v>
       </c>
       <c r="AF189" s="105" t="n">
-        <v>3364133755143.859</v>
+        <v>1053587863734.558</v>
       </c>
       <c r="AG189" s="105" t="n">
-        <v>3370709481551.727</v>
+        <v>1055647266256.226</v>
       </c>
       <c r="AH189" s="105" t="n">
-        <v>3378092407907.866</v>
+        <v>1057959469686.241</v>
       </c>
       <c r="AI189" s="105" t="n">
-        <v>3384943763566.363</v>
+        <v>1060105194469.296</v>
       </c>
       <c r="AJ189" s="105" t="n">
-        <v>3390239782739.166</v>
+        <v>1061763815063.093</v>
       </c>
       <c r="AK189" s="105" t="n">
-        <v>3393232328888.856</v>
+        <v>1062701028186.726</v>
       </c>
       <c r="AL189" s="105" t="n">
-        <v>3393980465426.277</v>
+        <v>1062935331467.634</v>
       </c>
       <c r="AM189" s="105" t="n">
-        <v>3396244562842.16</v>
+        <v>1063644407186.172</v>
       </c>
       <c r="AN189" s="105" t="n">
-        <v>3399059918759.303</v>
+        <v>1064526127427.485</v>
       </c>
       <c r="AO189" s="105" t="n">
-        <v>3400123060154.585</v>
+        <v>1064859084721.407</v>
       </c>
     </row>
     <row r="190">
